--- a/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划-EDwin.xlsx
+++ b/项目文档/BTR_SAP二期_ERP二期与MES系统清单及开发计划-EDwin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db653cffff3944b7/亚控科技/项目资料/常州贝特瑞项目/负极二期/项目文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DF5542-6DF4-4E5F-AFAD-2067E01F40F4}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_C47DFF80376A92A8FCE9EF07A83FFA24739C370F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F15DC2-E0C3-4575-BEDD-DD0AF2BC7AE6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="735" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="736" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1054">
   <si>
     <t>BTR SAP与MES系统对接</t>
   </si>
@@ -2524,26 +2524,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>311/312/323/324/261/262/201/202/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>411/412</t>
-    </r>
-  </si>
-  <si>
     <t>311/312/261/262/Z61/Z62</t>
   </si>
   <si>
@@ -2578,10 +2558,6 @@
   </si>
   <si>
     <t>生产报工接口</t>
-  </si>
-  <si>
-    <t>MES系统定时报工报数，按生产订单、大工序、汇总工时、数量，调用ERP接口实时传输过账，SAP过账后返回结果。
-**MES系统建立大工序与小工序对应表，MES系统按实际生产的小工序统计工时与产出数量，当生产大工序进入下一道大工序时（或整个生产订单加工完成），取上一大工序内小工序的工时累加，数量取小工序产出数量最小值，通过接口传输给ERP报工报数确认过账。</t>
   </si>
   <si>
     <t>MES传入</t>
@@ -3011,9 +2987,6 @@
   </si>
   <si>
     <t>消息文本</t>
-  </si>
-  <si>
-    <t>生产入库退库接口</t>
   </si>
   <si>
     <t>条形码</t>
@@ -4650,9 +4623,6 @@
     <t>MJAHR</t>
   </si>
   <si>
-    <t>ZQCUD</t>
-  </si>
-  <si>
     <t>质检判定</t>
   </si>
   <si>
@@ -4669,9 +4639,6 @@
   </si>
   <si>
     <t>MES中间表：</t>
-  </si>
-  <si>
-    <t>LFART</t>
   </si>
   <si>
     <t>交货单类型</t>
@@ -5136,8 +5103,307 @@
     <phoneticPr fontId="81" type="noConversion"/>
   </si>
   <si>
+    <t>特殊库存标识</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单号</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：batch_relationship</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：Batch_PutTask</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：DetectionCharacteristicValue</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES系统接收ERP接口数据，按照更新标识做不同的逻辑处理。1.C：创建，MES系统新增数据；2.U：修改，MES系统检查已有数据并做更；3.D：删除，MES系统对已有数据做删除标记。MES系统处理成功之后更新数据状态，如未成功则定时重复处理或预警。</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新标识：C：创建，U：修改：D：删除</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>去12132312323</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>必输112</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：TXI_CONF</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>大批次</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：Production_storage_withdrawal</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD：销售交货单上下架需求</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：ZBARCODE</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES判断如果当前库存是寄售库存则给本字段传入K</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOBKZ</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_TYP</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:判定
+M:改判</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIONTYPE</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要明确订单的所有类型，方便后续查询匹配</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料号</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES大批次</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSNR</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP大批次</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZMTZ25</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZMTZ13</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES中间表：OrderRESBData</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUFNR</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEMFROM</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSTL</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>当ACTIONTYPE 是C时，为321,当ACTIONTYPE 是M时,为311</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货单号</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产入库退库接口</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFART</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功、失败</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GN1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：三元一期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GN2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：三元二期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LFP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：磷铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FJ1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负极一期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MES</t>
+    </r>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES系统定时报工报数，按生产订单、大工序、汇总工时、数量，调用ERP接口实时传输过账，SAP过账后返回结果。
+**MES系统建立大工序与小工序对应表，MES系统按实际生产的小工序统计工时与产出数量，当生产大工序进入下一道大工序时（或整个生产订单加工完成），取上一大工序内小工序的工时累加，数量取小工序产出数量最小值，通过接口传输给ERP报工报数确认过账。</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品</t>
     </r>
     <r>
       <rPr>
@@ -5162,9 +5428,19 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>冲销</t>
+      <t>产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲销，531副产品入库，</t>
     </r>
     <r>
       <rPr>
@@ -5173,163 +5449,57 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
+      <t>532</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>副产品</t>
+      <t>副产品冲销</t>
+    </r>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD：上下架信息回传（销售发货,销售订单全部发完后，前端一次性手动回传）</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZQCUD</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：质检（待检），1：非限制（合格），2：不合格</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBLNR</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料凭证中的项目</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZMTZ38</t>
+    <phoneticPr fontId="81" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>311/312/323/324/261/262/201/202/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>531/532</t>
+      <t>411/412</t>
     </r>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊库存标识</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单号</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD：上下架信息回传（销售发货）</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES中间表：batch_relationship</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES中间表：Batch_PutTask</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES中间表：DetectionCharacteristicValue</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES系统接收ERP接口数据，按照更新标识做不同的逻辑处理。1.C：创建，MES系统新增数据；2.U：修改，MES系统检查已有数据并做更；3.D：删除，MES系统对已有数据做删除标记。MES系统处理成功之后更新数据状态，如未成功则定时重复处理或预警。</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新标识：C：创建，U：修改：D：删除</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>去12132312323</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>必输112</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES中间表：TXI_CONF</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>大批次</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES中间表：Production_storage_withdrawal</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD：销售交货单上下架需求</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES中间表：ZBARCODE</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES判断如果当前库存是寄售库存则给本字段传入K</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOBKZ</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSG_TYP</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:判定
-M:改判</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIONTYPE</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要明确订单的所有类型，方便后续查询匹配</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料号</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES大批次</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>POSNR</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP大批次</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZMTZ25</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZMTZ13</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>MES中间表：OrderRESBData</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUFNR</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商代码</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>STEMFROM</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOSTL</t>
-    <phoneticPr fontId="81" type="noConversion"/>
-  </si>
-  <si>
-    <t>当ACTIONTYPE 是C时，为321,当ACTIONTYPE 是M时,为311</t>
     <phoneticPr fontId="81" type="noConversion"/>
   </si>
 </sst>
@@ -5343,7 +5513,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="99">
+  <fonts count="100">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5986,6 +6156,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="21">
@@ -6732,7 +6909,7 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="602">
+  <cellXfs count="605">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8200,6 +8377,15 @@
     </xf>
     <xf numFmtId="0" fontId="83" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9463,7 +9649,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9481,23 +9667,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="48.6" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>630</v>
+      <c r="A1" s="522" t="s">
+        <v>1041</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="541" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="544" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
       <c r="M1" s="266"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
@@ -9505,16 +9691,16 @@
         <v>496</v>
       </c>
       <c r="B2" s="505" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="J2" s="508" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
@@ -9534,7 +9720,7 @@
         <v>499</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>500</v>
@@ -9729,7 +9915,7 @@
         <v>462</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>484</v>
@@ -9749,7 +9935,7 @@
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M10" s="23"/>
     </row>
@@ -9758,7 +9944,7 @@
         <v>468</v>
       </c>
       <c r="B11" s="502" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>481</v>
@@ -9776,45 +9962,45 @@
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="502" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:14" s="253" customFormat="1" ht="15">
       <c r="A12" s="255" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B12" s="256" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C12" s="257" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D12" s="258" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E12" s="259"/>
       <c r="F12" s="259"/>
       <c r="G12" s="259"/>
       <c r="H12" s="259"/>
       <c r="I12" s="255" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J12" s="257" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K12" s="267"/>
       <c r="L12" s="256" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="M12" s="268"/>
     </row>
     <row r="13" spans="1:14" s="253" customFormat="1" ht="15">
       <c r="A13" s="255" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B13" s="256" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C13" s="257" t="s">
         <v>507</v>
@@ -9825,18 +10011,18 @@
       <c r="G13" s="259"/>
       <c r="H13" s="259"/>
       <c r="I13" s="255" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J13" s="257" t="s">
         <v>507</v>
       </c>
       <c r="K13" s="267"/>
       <c r="L13" s="256" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M13" s="268"/>
     </row>
-    <row r="14" spans="1:14" s="253" customFormat="1" ht="30">
+    <row r="14" spans="1:14" s="253" customFormat="1" ht="43.5">
       <c r="A14" s="260" t="s">
         <v>520</v>
       </c>
@@ -9847,7 +10033,7 @@
         <v>522</v>
       </c>
       <c r="D14" s="257" t="s">
-        <v>1012</v>
+        <v>1046</v>
       </c>
       <c r="E14" s="259"/>
       <c r="F14" s="259"/>
@@ -9870,7 +10056,7 @@
         <v>476</v>
       </c>
       <c r="B15" s="506" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C15" s="147" t="s">
         <v>478</v>
@@ -9898,7 +10084,7 @@
         <v>479</v>
       </c>
       <c r="B16" s="506" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C16" s="147" t="s">
         <v>481</v>
@@ -9948,17 +10134,17 @@
       </c>
       <c r="K17" s="267"/>
       <c r="L17" s="506" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="M17" s="262"/>
       <c r="N17" s="149"/>
     </row>
     <row r="18" spans="1:14" s="253" customFormat="1" ht="15">
       <c r="A18" s="147" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B18" s="263" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C18" s="147" t="s">
         <v>481</v>
@@ -9971,14 +10157,14 @@
       <c r="G18" s="265"/>
       <c r="H18" s="150"/>
       <c r="I18" s="263" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J18" s="263" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K18" s="147"/>
       <c r="L18" s="264" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M18" s="264"/>
       <c r="N18" s="149" t="s">
@@ -9993,7 +10179,7 @@
         <v>396</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -10004,7 +10190,7 @@
         <v>394</v>
       </c>
       <c r="J19" s="131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K19" s="100"/>
       <c r="L19" s="131" t="s">
@@ -10033,7 +10219,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5">
       <c r="A21" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -10089,7 +10275,7 @@
         <v>347</v>
       </c>
       <c r="G23" s="499" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -10117,7 +10303,7 @@
         <v>351</v>
       </c>
       <c r="G24" s="497" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -10177,7 +10363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E25"/>
     </sheetView>
   </sheetViews>
@@ -10202,13 +10388,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25">
       <c r="A1" s="141" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J1" s="6"/>
     </row>
@@ -10229,7 +10415,7 @@
         <v>499</v>
       </c>
       <c r="F2" s="143" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G2" s="143" t="s">
         <v>500</v>
@@ -10258,10 +10444,10 @@
         <v>502</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="143"/>
@@ -10269,14 +10455,14 @@
       <c r="G3" s="143"/>
       <c r="H3" s="143"/>
       <c r="I3" s="240" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="J3" s="99"/>
       <c r="K3" s="100"/>
       <c r="L3" s="145"/>
       <c r="M3" s="242"/>
       <c r="O3" s="243" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="33">
@@ -10287,7 +10473,7 @@
         <v>506</v>
       </c>
       <c r="C4" s="145" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D4" s="145" t="s">
         <v>508</v>
@@ -10307,10 +10493,10 @@
         <v>374</v>
       </c>
       <c r="B5" s="145" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D5" s="145"/>
       <c r="E5" s="143"/>
@@ -10328,10 +10514,10 @@
         <v>382</v>
       </c>
       <c r="B6" s="491" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D6" s="145"/>
       <c r="E6" s="143"/>
@@ -10352,7 +10538,7 @@
         <v>514</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D7" s="145" t="s">
         <v>516</v>
@@ -10375,7 +10561,7 @@
         <v>396</v>
       </c>
       <c r="C8" s="145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D8" s="145"/>
       <c r="E8" s="143"/>
@@ -10453,13 +10639,13 @@
     </row>
     <row r="12" spans="1:15" ht="33">
       <c r="A12" s="491" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B12" s="145" t="s">
         <v>489</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D12" s="144"/>
       <c r="E12" s="143"/>
@@ -10474,13 +10660,13 @@
     </row>
     <row r="13" spans="1:15" ht="17.25">
       <c r="A13" s="145" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B13" s="145" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D13" s="144"/>
       <c r="E13" s="143"/>
@@ -10501,13 +10687,13 @@
         <v>521</v>
       </c>
       <c r="C14" s="145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D14" s="145" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E14" s="490" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F14" s="143"/>
       <c r="G14" s="143"/>
@@ -10587,13 +10773,13 @@
     </row>
     <row r="18" spans="1:13" ht="17.25">
       <c r="A18" s="131" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B18" s="130" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="143"/>
@@ -10608,13 +10794,13 @@
     </row>
     <row r="19" spans="1:13" ht="17.25">
       <c r="A19" s="131" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B19" s="130" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="143"/>
@@ -10629,13 +10815,13 @@
     </row>
     <row r="20" spans="1:13" ht="17.25">
       <c r="A20" s="145" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B20" s="144" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="143"/>
@@ -10650,13 +10836,13 @@
     </row>
     <row r="21" spans="1:13" ht="17.25">
       <c r="A21" s="145" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B21" s="144" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C21" s="144" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D21" s="145" t="s">
         <v>497</v>
@@ -10673,13 +10859,13 @@
     </row>
     <row r="22" spans="1:13" ht="17.25">
       <c r="A22" s="145" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B22" s="144" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C22" s="144" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D22" s="145"/>
       <c r="E22" s="143"/>
@@ -10694,13 +10880,13 @@
     </row>
     <row r="23" spans="1:13" ht="17.25">
       <c r="A23" s="145" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B23" s="144" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C23" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D23" s="145"/>
       <c r="E23" s="143"/>
@@ -10715,13 +10901,13 @@
     </row>
     <row r="24" spans="1:13" ht="33">
       <c r="A24" s="145" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B24" s="144" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C24" s="144" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D24" s="145"/>
       <c r="E24" s="143"/>
@@ -10736,16 +10922,16 @@
     </row>
     <row r="25" spans="1:13" ht="51.75">
       <c r="A25" s="145" t="s">
+        <v>663</v>
+      </c>
+      <c r="B25" s="144" t="s">
+        <v>664</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>665</v>
+      </c>
+      <c r="D25" s="145" t="s">
         <v>666</v>
-      </c>
-      <c r="B25" s="144" t="s">
-        <v>667</v>
-      </c>
-      <c r="C25" s="144" t="s">
-        <v>668</v>
-      </c>
-      <c r="D25" s="145" t="s">
-        <v>669</v>
       </c>
       <c r="E25" s="143"/>
       <c r="F25" s="143"/>
@@ -10761,13 +10947,13 @@
     </row>
     <row r="26" spans="1:13" s="142" customFormat="1" ht="17.25">
       <c r="A26" s="197" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="240" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C26" s="240" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D26" s="241"/>
       <c r="E26" s="185"/>
@@ -10782,13 +10968,13 @@
     </row>
     <row r="27" spans="1:13" s="142" customFormat="1" ht="17.25">
       <c r="A27" s="197" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B27" s="240" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C27" s="240" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D27" s="241"/>
       <c r="E27" s="185"/>
@@ -10803,13 +10989,13 @@
     </row>
     <row r="28" spans="1:13" s="142" customFormat="1" ht="17.25">
       <c r="A28" s="240" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B28" s="240" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C28" s="240" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D28" s="241"/>
       <c r="E28" s="185"/>
@@ -10843,7 +11029,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="168" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -11005,7 +11191,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11018,7 +11204,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="225" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="33">
@@ -11044,7 +11230,7 @@
         <v>277</v>
       </c>
       <c r="I2" s="508" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5">
@@ -11064,7 +11250,7 @@
         <v>511</v>
       </c>
       <c r="F3" s="209" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G3" s="205"/>
     </row>
@@ -11085,7 +11271,7 @@
     </row>
     <row r="5" spans="1:13" ht="28.5">
       <c r="A5" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -11227,7 +11413,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11262,7 +11448,7 @@
         <v>277</v>
       </c>
       <c r="H1" s="508" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5">
@@ -11279,11 +11465,11 @@
         <v>8</v>
       </c>
       <c r="E2" s="202" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F2" s="204"/>
       <c r="G2" s="205" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
@@ -11291,7 +11477,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="206" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C3" s="202" t="s">
         <v>280</v>
@@ -11300,11 +11486,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="208" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F3" s="209"/>
       <c r="G3" s="205" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33">
@@ -11312,7 +11498,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="201" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C4" s="202" t="s">
         <v>280</v>
@@ -11321,11 +11507,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="202" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F4" s="209"/>
       <c r="G4" s="210" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5">
@@ -11345,7 +11531,7 @@
         <v>511</v>
       </c>
       <c r="F5" s="208" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G5" s="213"/>
     </row>
@@ -11366,7 +11552,7 @@
         <v>381</v>
       </c>
       <c r="F6" s="209" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G6" s="213"/>
       <c r="L6">
@@ -11390,7 +11576,7 @@
         <v>469</v>
       </c>
       <c r="F7" s="209" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G7" s="210"/>
       <c r="L7">
@@ -11402,7 +11588,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="201" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C8" s="202" t="s">
         <v>280</v>
@@ -11411,11 +11597,11 @@
         <v>30</v>
       </c>
       <c r="E8" s="202" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F8" s="209"/>
       <c r="G8" s="210" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="L8">
         <v>485</v>
@@ -11426,7 +11612,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="201" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C9" s="202" t="s">
         <v>280</v>
@@ -11435,11 +11621,11 @@
         <v>2</v>
       </c>
       <c r="E9" s="202" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="205" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L9">
         <v>511</v>
@@ -11459,10 +11645,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="208" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F10" s="209" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G10" s="210"/>
       <c r="L10">
@@ -11486,7 +11672,7 @@
         <v>396</v>
       </c>
       <c r="F11" s="209" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G11" s="213"/>
       <c r="L11">
@@ -11498,7 +11684,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="201" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C12" s="202" t="s">
         <v>280</v>
@@ -11507,7 +11693,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="202" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F12" s="209"/>
       <c r="G12" s="213"/>
@@ -11520,7 +11706,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="214" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C13" s="202" t="s">
         <v>280</v>
@@ -11529,11 +11715,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="202" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F13" s="209"/>
       <c r="G13" s="210" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L13">
         <v>526</v>
@@ -11544,7 +11730,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="215" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C14" s="216" t="s">
         <v>280</v>
@@ -11553,11 +11739,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="217" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F14" s="209"/>
       <c r="G14" s="210" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L14">
         <v>526</v>
@@ -11568,7 +11754,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="201" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C15" s="216" t="s">
         <v>280</v>
@@ -11577,7 +11763,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="216" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F15" s="218"/>
       <c r="G15" s="213"/>
@@ -11590,7 +11776,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="201" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C16" s="216" t="s">
         <v>455</v>
@@ -11599,7 +11785,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="216" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F16" s="218"/>
       <c r="G16" s="213"/>
@@ -11609,7 +11795,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="201" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C17" s="216" t="s">
         <v>280</v>
@@ -11618,7 +11804,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="216" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F17" s="218"/>
       <c r="G17" s="213"/>
@@ -11626,7 +11812,7 @@
     <row r="18" spans="1:13" ht="33">
       <c r="A18" s="219"/>
       <c r="B18" s="220" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C18" s="195" t="s">
         <v>280</v>
@@ -11635,7 +11821,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="195" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F18" s="222"/>
       <c r="G18" s="223"/>
@@ -11643,7 +11829,7 @@
     <row r="19" spans="1:13" ht="16.5">
       <c r="A19" s="219"/>
       <c r="B19" s="224" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C19" s="195" t="s">
         <v>280</v>
@@ -11652,7 +11838,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="195" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F19" s="222"/>
       <c r="G19" s="223"/>
@@ -11673,7 +11859,7 @@
     </row>
     <row r="22" spans="1:13" ht="42.75">
       <c r="A22" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -11775,8 +11961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11815,7 +12001,7 @@
         <v>499</v>
       </c>
       <c r="F2" s="143" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G2" s="143" t="s">
         <v>500</v>
@@ -11824,7 +12010,7 @@
         <v>501</v>
       </c>
       <c r="J2" s="142" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
@@ -11832,10 +12018,10 @@
         <v>382</v>
       </c>
       <c r="B3" s="511" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="145" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="143"/>
@@ -11845,13 +12031,13 @@
     </row>
     <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="498" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B4" s="511" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="C4" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D4" s="144"/>
       <c r="E4" s="143"/>
@@ -11859,21 +12045,21 @@
       <c r="G4" s="143"/>
       <c r="H4" s="143"/>
       <c r="J4" s="508" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="176" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" s="177" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" s="145" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5" s="143" t="s">
         <v>709</v>
-      </c>
-      <c r="B5" s="177" t="s">
-        <v>710</v>
-      </c>
-      <c r="C5" s="145" t="s">
-        <v>711</v>
-      </c>
-      <c r="D5" s="143" t="s">
-        <v>712</v>
       </c>
       <c r="E5" s="143"/>
       <c r="F5" s="143"/>
@@ -11881,16 +12067,16 @@
     </row>
     <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="176" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B6" s="177" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D6" s="143" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E6" s="143"/>
       <c r="F6" s="143"/>
@@ -11898,16 +12084,16 @@
     </row>
     <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="176" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B7" s="177" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D7" s="143" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
@@ -11915,16 +12101,16 @@
     </row>
     <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="176" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B8" s="177" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C8" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D8" s="143" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E8" s="143"/>
       <c r="F8" s="143"/>
@@ -11932,16 +12118,16 @@
     </row>
     <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="176" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B9" s="177" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D9" s="178" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
@@ -11949,16 +12135,16 @@
     </row>
     <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="176" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B10" s="177" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C10" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D10" s="143" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E10" s="143"/>
       <c r="F10" s="143"/>
@@ -11966,16 +12152,16 @@
     </row>
     <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="519" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B11" s="179" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D11" s="180" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F11" s="143"/>
       <c r="G11" s="143"/>
@@ -11983,13 +12169,13 @@
     </row>
     <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="176" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B12" s="177" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D12" s="143"/>
       <c r="E12" s="143"/>
@@ -11998,16 +12184,16 @@
     </row>
     <row r="13" spans="1:10" ht="34.5">
       <c r="A13" s="176" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B13" s="177" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E13" s="143"/>
       <c r="F13" s="143"/>
@@ -12015,16 +12201,16 @@
     </row>
     <row r="14" spans="1:10" ht="18">
       <c r="A14" s="176" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B14" s="177" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C14" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D14" s="143" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E14" s="181"/>
       <c r="F14" s="143"/>
@@ -12032,16 +12218,16 @@
     </row>
     <row r="15" spans="1:10" ht="17.25">
       <c r="A15" s="176" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B15" s="177" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C15" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D15" s="180" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F15" s="143"/>
       <c r="G15" s="143"/>
@@ -12049,13 +12235,13 @@
     </row>
     <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="176" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B16" s="177" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="143"/>
@@ -12065,13 +12251,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="176" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B17" s="177" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C17" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D17" s="144"/>
       <c r="E17" s="143"/>
@@ -12081,13 +12267,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="176" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B18" s="179" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C18" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="143"/>
@@ -12097,13 +12283,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="176" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B19" s="179" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D19" s="144"/>
       <c r="E19" s="143"/>
@@ -12113,13 +12299,13 @@
     </row>
     <row r="20" spans="1:8" ht="17.25">
       <c r="A20" s="176" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B20" s="179" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D20" s="144"/>
       <c r="E20" s="143"/>
@@ -12129,13 +12315,13 @@
     </row>
     <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="176" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B21" s="177" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C21" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D21" s="144"/>
       <c r="E21" s="143"/>
@@ -12145,13 +12331,13 @@
     </row>
     <row r="22" spans="1:8" ht="17.25">
       <c r="A22" s="176" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B22" s="177" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C22" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="143"/>
@@ -12161,13 +12347,13 @@
     </row>
     <row r="23" spans="1:8" ht="17.25">
       <c r="A23" s="519" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="B23" s="177" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="143"/>
@@ -12177,16 +12363,16 @@
     </row>
     <row r="24" spans="1:8" ht="17.25">
       <c r="A24" s="176" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B24" s="177" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C24" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D24" s="180" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
@@ -12194,13 +12380,13 @@
     </row>
     <row r="25" spans="1:8" ht="17.25">
       <c r="A25" s="176" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B25" s="179" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C25" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="143"/>
@@ -12210,16 +12396,16 @@
     </row>
     <row r="26" spans="1:8" ht="17.25">
       <c r="A26" s="176" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B26" s="177" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C26" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F26" s="143"/>
       <c r="G26" s="143"/>
@@ -12227,13 +12413,13 @@
     </row>
     <row r="27" spans="1:8" ht="17.25">
       <c r="A27" s="176" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B27" s="182" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C27" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D27" s="144"/>
       <c r="E27" s="143"/>
@@ -12243,13 +12429,13 @@
     </row>
     <row r="28" spans="1:8" ht="17.25">
       <c r="A28" s="176" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B28" s="179" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C28" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D28" s="144"/>
       <c r="E28" s="143"/>
@@ -12259,16 +12445,16 @@
     </row>
     <row r="29" spans="1:8" ht="17.25">
       <c r="A29" s="176" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B29" s="177" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C29" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D29" s="180" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E29" s="180"/>
       <c r="F29" s="143"/>
@@ -12276,16 +12462,16 @@
     </row>
     <row r="30" spans="1:8" ht="17.25">
       <c r="A30" s="176" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B30" s="177" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C30" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D30" s="180" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E30" s="180"/>
       <c r="F30" s="143"/>
@@ -12293,16 +12479,16 @@
     </row>
     <row r="31" spans="1:8" ht="17.25">
       <c r="A31" s="176" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B31" s="177" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C31" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D31" s="180" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
@@ -12310,16 +12496,16 @@
     </row>
     <row r="32" spans="1:8" ht="17.25">
       <c r="A32" s="176" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B32" s="177" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C32" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F32" s="143"/>
       <c r="G32" s="143"/>
@@ -12327,16 +12513,16 @@
     </row>
     <row r="33" spans="1:8" ht="17.25">
       <c r="A33" s="176" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B33" s="177" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C33" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D33" s="180" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F33" s="143"/>
       <c r="G33" s="143"/>
@@ -12354,16 +12540,16 @@
     </row>
     <row r="35" spans="1:8" ht="17.25">
       <c r="A35" s="24" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C35" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D35" s="143" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E35" s="187"/>
       <c r="F35" s="186"/>
@@ -12371,16 +12557,16 @@
     </row>
     <row r="36" spans="1:8" ht="17.25">
       <c r="A36" s="24" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C36" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D36" s="143" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E36" s="187"/>
       <c r="F36" s="186"/>
@@ -12388,16 +12574,16 @@
     </row>
     <row r="37" spans="1:8" ht="17.25">
       <c r="A37" s="24" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B37" s="188" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C37" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D37" s="143" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E37" s="187"/>
       <c r="F37" s="186"/>
@@ -12405,16 +12591,16 @@
     </row>
     <row r="38" spans="1:8" ht="17.25">
       <c r="A38" s="24" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B38" s="189" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C38" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E38" s="187"/>
       <c r="F38" s="186"/>
@@ -12423,13 +12609,13 @@
     </row>
     <row r="39" spans="1:8" ht="17.25">
       <c r="A39" s="186" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B39" s="189" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C39" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D39" s="186"/>
       <c r="E39" s="187"/>
@@ -12438,13 +12624,13 @@
     </row>
     <row r="40" spans="1:8" ht="17.25">
       <c r="A40" s="186" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B40" s="189" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C40" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D40" s="186"/>
       <c r="E40" s="187"/>
@@ -12454,13 +12640,13 @@
     </row>
     <row r="41" spans="1:8" ht="17.25">
       <c r="A41" s="186" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B41" s="189" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C41" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D41" s="186"/>
       <c r="E41" s="187"/>
@@ -12470,13 +12656,13 @@
     </row>
     <row r="42" spans="1:8" ht="17.25">
       <c r="A42" s="186" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B42" s="189" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C42" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D42" s="186"/>
       <c r="E42" s="187"/>
@@ -12486,16 +12672,16 @@
     </row>
     <row r="43" spans="1:8" ht="17.25">
       <c r="A43" s="24" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C43" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E43" s="187"/>
       <c r="F43" s="186"/>
@@ -12504,16 +12690,16 @@
     </row>
     <row r="44" spans="1:8" ht="17.25">
       <c r="A44" s="184" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B44" s="190" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C44" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D44" s="184" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E44" s="187"/>
       <c r="F44" s="186"/>
@@ -12522,16 +12708,16 @@
     </row>
     <row r="45" spans="1:8" ht="17.25">
       <c r="A45" s="184" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B45" s="190" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C45" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D45" s="184" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E45" s="187"/>
       <c r="F45" s="186"/>
@@ -12540,16 +12726,16 @@
     </row>
     <row r="46" spans="1:8" ht="17.25">
       <c r="A46" s="184" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B46" s="190" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C46" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D46" s="184" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F46" s="186"/>
       <c r="G46" s="186"/>
@@ -12557,16 +12743,16 @@
     </row>
     <row r="47" spans="1:8" ht="17.25">
       <c r="A47" s="24" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C47" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F47" s="186"/>
       <c r="G47" s="186"/>
@@ -12574,16 +12760,16 @@
     </row>
     <row r="48" spans="1:8" ht="17.25">
       <c r="A48" s="24" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C48" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F48" s="186"/>
       <c r="G48" s="186"/>
@@ -12591,16 +12777,16 @@
     </row>
     <row r="49" spans="1:8" ht="17.25">
       <c r="A49" s="24" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C49" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F49" s="186"/>
       <c r="G49" s="186"/>
@@ -12608,16 +12794,16 @@
     </row>
     <row r="50" spans="1:8" ht="17.25">
       <c r="A50" s="24" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B50" s="191" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C50" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F50" s="186"/>
       <c r="G50" s="186"/>
@@ -12625,16 +12811,16 @@
     </row>
     <row r="51" spans="1:8" ht="17.25">
       <c r="A51" s="24" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B51" s="191" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C51" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F51" s="186"/>
       <c r="G51" s="186"/>
@@ -12642,16 +12828,16 @@
     </row>
     <row r="52" spans="1:8" ht="17.25">
       <c r="A52" s="24" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B52" s="191" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C52" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F52" s="186"/>
       <c r="G52" s="186"/>
@@ -12659,16 +12845,16 @@
     </row>
     <row r="53" spans="1:8" ht="17.25">
       <c r="A53" s="24" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C53" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F53" s="186"/>
       <c r="G53" s="186"/>
@@ -12676,16 +12862,16 @@
     </row>
     <row r="54" spans="1:8" ht="17.25">
       <c r="A54" s="24" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B54" s="191" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C54" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F54" s="186"/>
       <c r="G54" s="186"/>
@@ -12693,16 +12879,16 @@
     </row>
     <row r="55" spans="1:8" ht="17.25">
       <c r="A55" s="24" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C55" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D55" s="140" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F55" s="186"/>
       <c r="G55" s="186"/>
@@ -12710,16 +12896,16 @@
     </row>
     <row r="56" spans="1:8" ht="17.25">
       <c r="A56" s="24" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C56" s="145" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F56" s="186"/>
       <c r="G56" s="186"/>
@@ -12737,10 +12923,10 @@
     </row>
     <row r="58" spans="1:8" ht="17.25">
       <c r="A58" s="194" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B58" s="140" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E58" s="186"/>
       <c r="F58" s="186"/>
@@ -12749,10 +12935,10 @@
     </row>
     <row r="59" spans="1:8" ht="17.25">
       <c r="A59" s="194" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B59" s="140" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E59" s="186"/>
       <c r="F59" s="186"/>
@@ -12761,10 +12947,10 @@
     </row>
     <row r="60" spans="1:8" ht="17.25">
       <c r="A60" s="194" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B60" s="140" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E60" s="186"/>
       <c r="F60" s="186"/>
@@ -12773,10 +12959,10 @@
     </row>
     <row r="61" spans="1:8" ht="17.25">
       <c r="A61" s="194" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B61" s="140" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E61" s="186"/>
       <c r="F61" s="186"/>
@@ -12785,10 +12971,10 @@
     </row>
     <row r="62" spans="1:8" ht="17.25">
       <c r="A62" s="194" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B62" s="140" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E62" s="186"/>
       <c r="F62" s="186"/>
@@ -12797,10 +12983,10 @@
     </row>
     <row r="63" spans="1:8" ht="17.25">
       <c r="A63" s="194" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B63" s="140" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E63" s="186"/>
       <c r="F63" s="186"/>
@@ -12809,10 +12995,10 @@
     </row>
     <row r="64" spans="1:8" ht="17.25">
       <c r="A64" s="194" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B64" s="140" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E64" s="186"/>
       <c r="F64" s="186"/>
@@ -12821,10 +13007,10 @@
     </row>
     <row r="65" spans="1:9" ht="17.25">
       <c r="A65" s="194" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B65" s="140" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E65" s="186"/>
       <c r="F65" s="186"/>
@@ -12833,10 +13019,10 @@
     </row>
     <row r="66" spans="1:9" ht="17.25">
       <c r="A66" s="194" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B66" s="140" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E66" s="186"/>
       <c r="F66" s="186"/>
@@ -12845,10 +13031,10 @@
     </row>
     <row r="67" spans="1:9" ht="17.25">
       <c r="A67" s="194" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B67" s="140" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E67" s="186"/>
       <c r="F67" s="186"/>
@@ -12857,10 +13043,10 @@
     </row>
     <row r="68" spans="1:9" ht="17.25">
       <c r="A68" s="194" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B68" s="140" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E68" s="186"/>
       <c r="F68" s="186"/>
@@ -12869,10 +13055,10 @@
     </row>
     <row r="69" spans="1:9" ht="17.25">
       <c r="A69" s="194" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B69" s="140" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E69" s="186"/>
       <c r="F69" s="186"/>
@@ -12881,10 +13067,10 @@
     </row>
     <row r="70" spans="1:9" ht="17.25">
       <c r="A70" s="194" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B70" s="140" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E70" s="186"/>
       <c r="F70" s="186"/>
@@ -12893,10 +13079,10 @@
     </row>
     <row r="71" spans="1:9" ht="17.25">
       <c r="A71" s="194" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B71" s="140" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E71" s="186"/>
       <c r="F71" s="186"/>
@@ -12905,10 +13091,10 @@
     </row>
     <row r="72" spans="1:9" ht="17.25">
       <c r="A72" s="194" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B72" s="140" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E72" s="186"/>
       <c r="F72" s="186"/>
@@ -12917,10 +13103,10 @@
     </row>
     <row r="73" spans="1:9" ht="17.25">
       <c r="A73" s="194" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B73" s="140" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E73" s="186"/>
       <c r="F73" s="186"/>
@@ -12929,10 +13115,10 @@
     </row>
     <row r="74" spans="1:9" ht="17.25">
       <c r="A74" s="194" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B74" s="140" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E74" s="186"/>
       <c r="F74" s="186"/>
@@ -12941,10 +13127,10 @@
     </row>
     <row r="75" spans="1:9" ht="17.25">
       <c r="A75" s="194" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B75" s="140" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E75" s="186"/>
       <c r="F75" s="186"/>
@@ -12953,10 +13139,10 @@
     </row>
     <row r="76" spans="1:9" ht="17.25">
       <c r="A76" s="194" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B76" s="140" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E76" s="186"/>
       <c r="F76" s="186"/>
@@ -12965,28 +13151,28 @@
     </row>
     <row r="77" spans="1:9" ht="17.25">
       <c r="A77" s="194" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B77" s="140" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E77" s="186"/>
       <c r="F77" s="186"/>
       <c r="G77" s="186"/>
       <c r="H77" s="143"/>
       <c r="I77" s="517" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17.25">
-      <c r="A78" s="195" t="s">
-        <v>688</v>
+      <c r="A78" s="524" t="s">
+        <v>1052</v>
       </c>
       <c r="B78" s="196" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C78" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D78" s="184"/>
       <c r="E78" s="186"/>
@@ -12996,13 +13182,13 @@
     </row>
     <row r="79" spans="1:9" ht="17.25">
       <c r="A79" s="195" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B79" s="196" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C79" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D79" s="184"/>
       <c r="E79" s="186"/>
@@ -13012,13 +13198,13 @@
     </row>
     <row r="80" spans="1:9" ht="17.25">
       <c r="A80" s="195" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B80" s="196" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C80" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D80" s="184"/>
       <c r="E80" s="186"/>
@@ -13028,13 +13214,13 @@
     </row>
     <row r="81" spans="1:13" ht="17.25">
       <c r="A81" s="195" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B81" s="196" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C81" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D81" s="184"/>
       <c r="E81" s="186"/>
@@ -13044,13 +13230,13 @@
     </row>
     <row r="82" spans="1:13" ht="17.25">
       <c r="A82" s="195" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B82" s="196" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C82" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D82" s="184"/>
       <c r="E82" s="186"/>
@@ -13060,13 +13246,13 @@
     </row>
     <row r="83" spans="1:13" ht="17.25">
       <c r="A83" s="195" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B83" s="196" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C83" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D83" s="184"/>
       <c r="E83" s="186"/>
@@ -13076,13 +13262,13 @@
     </row>
     <row r="84" spans="1:13" ht="17.25">
       <c r="A84" s="195" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B84" s="196" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C84" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D84" s="184"/>
       <c r="E84" s="186"/>
@@ -13092,13 +13278,13 @@
     </row>
     <row r="85" spans="1:13" ht="17.25">
       <c r="A85" s="195" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B85" s="196" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C85" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D85" s="184"/>
       <c r="E85" s="186"/>
@@ -13108,13 +13294,13 @@
     </row>
     <row r="86" spans="1:13" ht="17.25">
       <c r="A86" s="195" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B86" s="196" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C86" s="197" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D86" s="184"/>
       <c r="E86" s="186"/>
@@ -13146,7 +13332,7 @@
     </row>
     <row r="90" spans="1:13" customFormat="1" ht="33">
       <c r="A90" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90" s="59" t="s">
         <v>272</v>
@@ -13244,8 +13430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13267,7 +13453,7 @@
         <v>496</v>
       </c>
       <c r="B1" s="142" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25">
@@ -13287,7 +13473,7 @@
         <v>499</v>
       </c>
       <c r="F2" s="143" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G2" s="143" t="s">
         <v>500</v>
@@ -13298,13 +13484,13 @@
     </row>
     <row r="3" spans="1:11" ht="33">
       <c r="A3" s="498" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D3" s="145"/>
       <c r="E3" s="143"/>
@@ -13312,7 +13498,7 @@
       <c r="G3" s="143"/>
       <c r="H3" s="143"/>
       <c r="I3" s="6" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33">
@@ -13323,7 +13509,7 @@
         <v>506</v>
       </c>
       <c r="C4" s="491" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D4" s="145" t="s">
         <v>508</v>
@@ -13341,13 +13527,13 @@
     </row>
     <row r="5" spans="1:11" ht="33">
       <c r="A5" s="491" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="B5" s="145" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D5" s="145"/>
       <c r="E5" s="143"/>
@@ -13363,7 +13549,7 @@
         <v>511</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D6" s="145"/>
       <c r="E6" s="143"/>
@@ -13376,13 +13562,13 @@
         <v>474</v>
       </c>
       <c r="B7" s="491" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D7" s="491" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
@@ -13420,7 +13606,7 @@
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
       <c r="H9" s="146" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51.75">
@@ -13438,18 +13624,18 @@
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
       <c r="H10" s="146" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33">
       <c r="A11" s="491" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B11" s="145" t="s">
         <v>489</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D11" s="144"/>
       <c r="E11" s="143"/>
@@ -13459,13 +13645,13 @@
     </row>
     <row r="12" spans="1:11" ht="17.25">
       <c r="A12" s="145" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B12" s="145" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D12" s="144"/>
       <c r="E12" s="143"/>
@@ -13481,14 +13667,14 @@
         <v>521</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D13" s="145"/>
       <c r="E13" s="143"/>
       <c r="F13" s="143"/>
       <c r="G13" s="143"/>
       <c r="H13" s="496" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:11" customFormat="1" ht="15">
@@ -13515,7 +13701,7 @@
         <v>480</v>
       </c>
       <c r="C15" s="145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D15" s="145"/>
       <c r="E15" s="143"/>
@@ -13531,7 +13717,7 @@
         <v>487</v>
       </c>
       <c r="C16" s="144" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D16" s="145"/>
       <c r="E16" s="143"/>
@@ -13541,13 +13727,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="145" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B17" s="144" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C17" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D17" s="145"/>
       <c r="E17" s="143"/>
@@ -13557,13 +13743,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="145" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B18" s="144" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C18" s="144" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="143"/>
@@ -13573,13 +13759,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="145" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B19" s="498" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="C19" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="143"/>
@@ -13589,13 +13775,13 @@
     </row>
     <row r="20" spans="1:8" ht="17.25">
       <c r="A20" s="145" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B20" s="144" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D20" s="145" t="s">
         <v>497</v>
@@ -13607,13 +13793,13 @@
     </row>
     <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="145" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B21" s="144" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C21" s="144" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D21" s="145"/>
       <c r="E21" s="143"/>
@@ -13622,14 +13808,14 @@
       <c r="H21" s="143"/>
     </row>
     <row r="22" spans="1:8" ht="17.25">
-      <c r="A22" s="145" t="s">
-        <v>661</v>
+      <c r="A22" s="491" t="s">
+        <v>1050</v>
       </c>
       <c r="B22" s="144" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C22" s="144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D22" s="145"/>
       <c r="E22" s="143"/>
@@ -13639,13 +13825,13 @@
     </row>
     <row r="23" spans="1:8" ht="17.25">
       <c r="A23" s="145" t="s">
-        <v>663</v>
-      </c>
-      <c r="B23" s="144" t="s">
-        <v>664</v>
+        <v>660</v>
+      </c>
+      <c r="B23" s="498" t="s">
+        <v>1051</v>
       </c>
       <c r="C23" s="144" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D23" s="145"/>
       <c r="E23" s="143"/>
@@ -13655,54 +13841,54 @@
     </row>
     <row r="24" spans="1:8" ht="69">
       <c r="A24" s="151" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B24" s="495" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C24" s="152" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D24" s="151"/>
       <c r="E24" s="146"/>
       <c r="F24" s="146"/>
       <c r="G24" s="146"/>
       <c r="H24" s="496" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51.75">
       <c r="A25" s="145" t="s">
+        <v>663</v>
+      </c>
+      <c r="B25" s="144" t="s">
+        <v>664</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>665</v>
+      </c>
+      <c r="D25" s="145" t="s">
         <v>666</v>
-      </c>
-      <c r="B25" s="144" t="s">
-        <v>667</v>
-      </c>
-      <c r="C25" s="144" t="s">
-        <v>668</v>
-      </c>
-      <c r="D25" s="145" t="s">
-        <v>669</v>
       </c>
       <c r="E25" s="143"/>
       <c r="F25" s="143"/>
       <c r="G25" s="143"/>
-      <c r="H25" s="143" t="s">
-        <v>294</v>
+      <c r="H25" s="490" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="139" customFormat="1" ht="33">
-      <c r="A26" s="153" t="s">
-        <v>904</v>
+      <c r="A26" s="523" t="s">
+        <v>1048</v>
       </c>
       <c r="B26" s="154" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D26" s="494" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E26" s="155"/>
       <c r="F26" s="155"/>
@@ -13711,38 +13897,38 @@
     </row>
     <row r="27" spans="1:8" s="139" customFormat="1" ht="33">
       <c r="A27" s="515" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="156" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C27" s="157" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D27" s="158"/>
       <c r="E27" s="159"/>
       <c r="F27" s="159"/>
       <c r="G27" s="159"/>
       <c r="H27" s="514" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="139" customFormat="1" ht="33">
       <c r="A28" s="160" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B28" s="161" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C28" s="162" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D28" s="161"/>
       <c r="E28" s="161"/>
       <c r="F28" s="161"/>
       <c r="G28" s="161"/>
       <c r="H28" s="161" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="139" customFormat="1" ht="17.25">
@@ -13757,7 +13943,7 @@
     </row>
     <row r="30" spans="1:8" s="139" customFormat="1" ht="90">
       <c r="A30" s="521" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>339</v>
@@ -13791,7 +13977,7 @@
     </row>
     <row r="34" spans="1:13" customFormat="1">
       <c r="A34" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -13894,8 +14080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -13922,14 +14108,14 @@
   <sheetData>
     <row r="2" spans="2:17" ht="22.5">
       <c r="B2" s="507" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
       <c r="G2" s="509" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="H2" s="30"/>
     </row>
@@ -13937,11 +14123,11 @@
       <c r="B3" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="601" t="s">
+      <c r="C3" s="604" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="601"/>
-      <c r="E3" s="601"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="604"/>
       <c r="F3" s="28"/>
       <c r="G3" s="29">
         <v>12</v>
@@ -14022,7 +14208,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="M9" s="6"/>
       <c r="Q9" s="6"/>
@@ -14073,7 +14259,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>911</v>
+        <v>1042</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>280</v>
@@ -14082,13 +14268,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G11" s="510" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="H11" s="492" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="J11" s="134"/>
       <c r="L11" s="135"/>
@@ -14102,7 +14288,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>280</v>
@@ -14111,7 +14297,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>347</v>
@@ -14129,7 +14315,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D13" s="63" t="s">
         <v>280</v>
@@ -14138,13 +14324,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>347</v>
       </c>
       <c r="H13" s="493" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="J13" s="97"/>
       <c r="L13" s="98"/>
@@ -14158,7 +14344,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>280</v>
@@ -14167,13 +14353,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G14" s="64" t="s">
         <v>351</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="J14" s="97"/>
       <c r="L14" s="98"/>
@@ -14187,7 +14373,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>280</v>
@@ -14196,7 +14382,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G15" s="64" t="s">
         <v>351</v>
@@ -14214,7 +14400,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>280</v>
@@ -14223,13 +14409,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G16" s="64" t="s">
         <v>351</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="J16" s="97"/>
       <c r="L16" s="98"/>
@@ -14243,7 +14429,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>280</v>
@@ -14252,7 +14438,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>351</v>
@@ -14270,7 +14456,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D18" s="63" t="s">
         <v>280</v>
@@ -14279,7 +14465,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G18" s="64" t="s">
         <v>351</v>
@@ -14297,7 +14483,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D19" s="63" t="s">
         <v>280</v>
@@ -14306,7 +14492,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G19" s="64" t="s">
         <v>351</v>
@@ -14360,13 +14546,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G21" s="64" t="s">
         <v>351</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="J21" s="97"/>
       <c r="L21" s="98"/>
@@ -14389,7 +14575,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="99" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G22" s="64" t="s">
         <v>347</v>
@@ -14416,7 +14602,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="99" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G23" s="64" t="s">
         <v>351</v>
@@ -14434,7 +14620,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D24" s="128" t="s">
         <v>280</v>
@@ -14443,7 +14629,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="99" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G24" s="64" t="s">
         <v>351</v>
@@ -14461,7 +14647,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D25" s="128" t="s">
         <v>280</v>
@@ -14470,7 +14656,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="99" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G25" s="64" t="s">
         <v>351</v>
@@ -14488,16 +14674,16 @@
         <v>16</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D26" s="128" t="s">
         <v>297</v>
       </c>
       <c r="E26" s="128" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="F26" s="99" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G26" s="64" t="s">
         <v>351</v>
@@ -14542,16 +14728,16 @@
         <v>18</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D28" s="128" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E28" s="128">
         <v>8</v>
       </c>
       <c r="F28" s="99" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G28" s="64" t="s">
         <v>347</v>
@@ -14569,10 +14755,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D29" s="128" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E29" s="128">
         <v>8</v>
@@ -14596,7 +14782,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D30" s="128" t="s">
         <v>409</v>
@@ -14605,7 +14791,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="99" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G30" s="64" t="s">
         <v>347</v>
@@ -14623,7 +14809,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D31" s="63" t="s">
         <v>280</v>
@@ -14632,7 +14818,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G31" s="64" t="s">
         <v>351</v>
@@ -14650,7 +14836,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>280</v>
@@ -14659,7 +14845,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G32" s="64" t="s">
         <v>351</v>
@@ -14677,7 +14863,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D33" s="63" t="s">
         <v>280</v>
@@ -14686,7 +14872,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G33" s="64" t="s">
         <v>351</v>
@@ -14704,7 +14890,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D34" s="63" t="s">
         <v>280</v>
@@ -14713,7 +14899,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G34" s="64" t="s">
         <v>351</v>
@@ -14731,7 +14917,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D35" s="63" t="s">
         <v>280</v>
@@ -14740,7 +14926,7 @@
         <v>40</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G35" s="64" t="s">
         <v>351</v>
@@ -14758,7 +14944,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D36" s="63" t="s">
         <v>280</v>
@@ -14767,7 +14953,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G36" s="64" t="s">
         <v>351</v>
@@ -14785,7 +14971,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D37" s="63" t="s">
         <v>280</v>
@@ -14794,7 +14980,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G37" s="64" t="s">
         <v>351</v>
@@ -14812,7 +14998,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D38" s="63" t="s">
         <v>280</v>
@@ -14821,7 +15007,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G38" s="64" t="s">
         <v>351</v>
@@ -14839,7 +15025,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D39" s="63" t="s">
         <v>280</v>
@@ -14848,7 +15034,7 @@
         <v>200</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G39" s="64" t="s">
         <v>351</v>
@@ -14866,7 +15052,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D40" s="63" t="s">
         <v>280</v>
@@ -14875,7 +15061,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G40" s="64" t="s">
         <v>351</v>
@@ -15053,8 +15239,8 @@
       <c r="G48" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="H48" s="84" t="s">
-        <v>963</v>
+      <c r="H48" s="499" t="s">
+        <v>1043</v>
       </c>
       <c r="J48" s="114"/>
       <c r="L48" s="115" t="s">
@@ -15070,7 +15256,7 @@
         <v>346</v>
       </c>
       <c r="P48" s="119" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="16.5">
@@ -15146,53 +15332,53 @@
       <c r="J52" s="92"/>
     </row>
     <row r="53" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B53" s="538" t="s">
+      <c r="B53" s="541" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="539"/>
-      <c r="D53" s="539"/>
-      <c r="E53" s="539"/>
-      <c r="F53" s="539"/>
-      <c r="G53" s="540"/>
+      <c r="C53" s="542"/>
+      <c r="D53" s="542"/>
+      <c r="E53" s="542"/>
+      <c r="F53" s="542"/>
+      <c r="G53" s="543"/>
       <c r="H53" s="30"/>
       <c r="I53" s="92"/>
       <c r="J53" s="92"/>
     </row>
     <row r="54" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B54" s="530" t="s">
-        <v>964</v>
-      </c>
-      <c r="C54" s="531"/>
-      <c r="D54" s="531"/>
-      <c r="E54" s="531"/>
-      <c r="F54" s="531"/>
-      <c r="G54" s="532"/>
+      <c r="B54" s="533" t="s">
+        <v>959</v>
+      </c>
+      <c r="C54" s="534"/>
+      <c r="D54" s="534"/>
+      <c r="E54" s="534"/>
+      <c r="F54" s="534"/>
+      <c r="G54" s="535"/>
       <c r="H54" s="30"/>
       <c r="I54" s="92"/>
       <c r="J54" s="92"/>
     </row>
     <row r="55" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B55" s="538" t="s">
+      <c r="B55" s="541" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="539"/>
-      <c r="D55" s="539"/>
-      <c r="E55" s="539"/>
-      <c r="F55" s="539"/>
-      <c r="G55" s="540"/>
+      <c r="C55" s="542"/>
+      <c r="D55" s="542"/>
+      <c r="E55" s="542"/>
+      <c r="F55" s="542"/>
+      <c r="G55" s="543"/>
       <c r="H55" s="30"/>
       <c r="I55" s="92"/>
       <c r="J55" s="92"/>
     </row>
     <row r="56" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B56" s="530" t="s">
-        <v>965</v>
-      </c>
-      <c r="C56" s="531"/>
-      <c r="D56" s="531"/>
-      <c r="E56" s="531"/>
-      <c r="F56" s="531"/>
-      <c r="G56" s="532"/>
+      <c r="B56" s="533" t="s">
+        <v>960</v>
+      </c>
+      <c r="C56" s="534"/>
+      <c r="D56" s="534"/>
+      <c r="E56" s="534"/>
+      <c r="F56" s="534"/>
+      <c r="G56" s="535"/>
       <c r="H56" s="30"/>
       <c r="I56" s="92"/>
       <c r="J56" s="92"/>
@@ -15227,13 +15413,13 @@
       <c r="B59" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="533" t="s">
+      <c r="C59" s="536" t="s">
         <v>362</v>
       </c>
-      <c r="D59" s="534"/>
-      <c r="E59" s="534"/>
-      <c r="F59" s="534"/>
-      <c r="G59" s="535"/>
+      <c r="D59" s="537"/>
+      <c r="E59" s="537"/>
+      <c r="F59" s="537"/>
+      <c r="G59" s="538"/>
       <c r="H59" s="30"/>
       <c r="I59" s="92"/>
       <c r="J59" s="92"/>
@@ -15242,13 +15428,13 @@
       <c r="B60" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="533" t="s">
+      <c r="C60" s="536" t="s">
         <v>364</v>
       </c>
-      <c r="D60" s="534"/>
-      <c r="E60" s="534"/>
-      <c r="F60" s="534"/>
-      <c r="G60" s="535"/>
+      <c r="D60" s="537"/>
+      <c r="E60" s="537"/>
+      <c r="F60" s="537"/>
+      <c r="G60" s="538"/>
       <c r="H60" s="30"/>
       <c r="I60" s="92"/>
       <c r="J60" s="92"/>
@@ -15257,13 +15443,13 @@
       <c r="B61" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="533" t="s">
+      <c r="C61" s="536" t="s">
         <v>366</v>
       </c>
-      <c r="D61" s="534"/>
-      <c r="E61" s="534"/>
-      <c r="F61" s="534"/>
-      <c r="G61" s="535"/>
+      <c r="D61" s="537"/>
+      <c r="E61" s="537"/>
+      <c r="F61" s="537"/>
+      <c r="G61" s="538"/>
       <c r="H61" s="30"/>
       <c r="I61" s="92"/>
       <c r="J61" s="92"/>
@@ -15302,8 +15488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -15330,7 +15516,7 @@
   <sheetData>
     <row r="2" spans="2:17" ht="22.5">
       <c r="B2" s="507" t="s">
-        <v>1015</v>
+        <v>1047</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -15339,18 +15525,18 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="601" t="s">
+      <c r="C3" s="604" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="601"/>
-      <c r="E3" s="601"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="604"/>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -15429,7 +15615,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="M9" s="6"/>
       <c r="Q9" s="6"/>
@@ -15480,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>280</v>
@@ -15488,8 +15674,8 @@
       <c r="E11" s="63">
         <v>10</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>914</v>
+      <c r="F11" s="510" t="s">
+        <v>1040</v>
       </c>
       <c r="G11" s="64" t="s">
         <v>347</v>
@@ -15507,7 +15693,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>280</v>
@@ -15516,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>347</v>
@@ -15534,7 +15720,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D13" s="63" t="s">
         <v>280</v>
@@ -15543,7 +15729,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>347</v>
@@ -15561,7 +15747,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>280</v>
@@ -15570,7 +15756,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G14" s="64" t="s">
         <v>347</v>
@@ -15588,7 +15774,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>280</v>
@@ -15597,7 +15783,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="65"/>
@@ -15613,7 +15799,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>280</v>
@@ -15622,7 +15808,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="66"/>
@@ -15638,7 +15824,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>280</v>
@@ -15647,7 +15833,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G17" s="64"/>
       <c r="H17" s="66"/>
@@ -15663,7 +15849,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D18" s="63" t="s">
         <v>280</v>
@@ -15672,7 +15858,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G18" s="64"/>
       <c r="H18" s="66"/>
@@ -15688,7 +15874,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D19" s="63" t="s">
         <v>280</v>
@@ -15697,7 +15883,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G19" s="64"/>
       <c r="H19" s="66"/>
@@ -15713,7 +15899,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D20" s="63" t="s">
         <v>280</v>
@@ -15722,7 +15908,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
@@ -15738,7 +15924,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>280</v>
@@ -15747,7 +15933,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G21" s="64"/>
       <c r="H21" s="66"/>
@@ -15763,7 +15949,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>280</v>
@@ -15772,7 +15958,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G22" s="64"/>
       <c r="H22" s="66"/>
@@ -15788,7 +15974,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>280</v>
@@ -15797,7 +15983,7 @@
         <v>200</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G23" s="64"/>
       <c r="H23" s="66"/>
@@ -15813,7 +15999,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>280</v>
@@ -15822,7 +16008,7 @@
         <v>200</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="66"/>
@@ -15867,7 +16053,7 @@
         <v>282</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="64"/>
@@ -15888,7 +16074,7 @@
         <v>282</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -15909,7 +16095,7 @@
         <v>282</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F28" s="75"/>
       <c r="G28" s="76"/>
@@ -15920,13 +16106,13 @@
         <v>341</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D29" s="67" t="s">
         <v>282</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="78" t="s">
@@ -16021,7 +16207,7 @@
         <v>347</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="J32" s="114"/>
       <c r="L32" s="115" t="s">
@@ -16037,7 +16223,7 @@
         <v>346</v>
       </c>
       <c r="P32" s="119" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5">
@@ -16113,53 +16299,53 @@
       <c r="J36" s="92"/>
     </row>
     <row r="37" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B37" s="538" t="s">
+      <c r="B37" s="541" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="539"/>
-      <c r="D37" s="539"/>
-      <c r="E37" s="539"/>
-      <c r="F37" s="539"/>
-      <c r="G37" s="540"/>
+      <c r="C37" s="542"/>
+      <c r="D37" s="542"/>
+      <c r="E37" s="542"/>
+      <c r="F37" s="542"/>
+      <c r="G37" s="543"/>
       <c r="H37" s="30"/>
       <c r="I37" s="92"/>
       <c r="J37" s="92"/>
     </row>
     <row r="38" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B38" s="530" t="s">
-        <v>964</v>
-      </c>
-      <c r="C38" s="531"/>
-      <c r="D38" s="531"/>
-      <c r="E38" s="531"/>
-      <c r="F38" s="531"/>
-      <c r="G38" s="532"/>
+      <c r="B38" s="533" t="s">
+        <v>959</v>
+      </c>
+      <c r="C38" s="534"/>
+      <c r="D38" s="534"/>
+      <c r="E38" s="534"/>
+      <c r="F38" s="534"/>
+      <c r="G38" s="535"/>
       <c r="H38" s="30"/>
       <c r="I38" s="92"/>
       <c r="J38" s="92"/>
     </row>
     <row r="39" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B39" s="538" t="s">
+      <c r="B39" s="541" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="539"/>
-      <c r="D39" s="539"/>
-      <c r="E39" s="539"/>
-      <c r="F39" s="539"/>
-      <c r="G39" s="540"/>
+      <c r="C39" s="542"/>
+      <c r="D39" s="542"/>
+      <c r="E39" s="542"/>
+      <c r="F39" s="542"/>
+      <c r="G39" s="543"/>
       <c r="H39" s="30"/>
       <c r="I39" s="92"/>
       <c r="J39" s="92"/>
     </row>
     <row r="40" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B40" s="530" t="s">
-        <v>965</v>
-      </c>
-      <c r="C40" s="531"/>
-      <c r="D40" s="531"/>
-      <c r="E40" s="531"/>
-      <c r="F40" s="531"/>
-      <c r="G40" s="532"/>
+      <c r="B40" s="533" t="s">
+        <v>960</v>
+      </c>
+      <c r="C40" s="534"/>
+      <c r="D40" s="534"/>
+      <c r="E40" s="534"/>
+      <c r="F40" s="534"/>
+      <c r="G40" s="535"/>
       <c r="H40" s="30"/>
       <c r="I40" s="92"/>
       <c r="J40" s="92"/>
@@ -16194,13 +16380,13 @@
       <c r="B43" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="533" t="s">
+      <c r="C43" s="536" t="s">
         <v>362</v>
       </c>
-      <c r="D43" s="534"/>
-      <c r="E43" s="534"/>
-      <c r="F43" s="534"/>
-      <c r="G43" s="535"/>
+      <c r="D43" s="537"/>
+      <c r="E43" s="537"/>
+      <c r="F43" s="537"/>
+      <c r="G43" s="538"/>
       <c r="H43" s="30"/>
       <c r="I43" s="92"/>
       <c r="J43" s="92"/>
@@ -16209,13 +16395,13 @@
       <c r="B44" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="533" t="s">
+      <c r="C44" s="536" t="s">
         <v>364</v>
       </c>
-      <c r="D44" s="534"/>
-      <c r="E44" s="534"/>
-      <c r="F44" s="534"/>
-      <c r="G44" s="535"/>
+      <c r="D44" s="537"/>
+      <c r="E44" s="537"/>
+      <c r="F44" s="537"/>
+      <c r="G44" s="538"/>
       <c r="H44" s="30"/>
       <c r="I44" s="92"/>
       <c r="J44" s="92"/>
@@ -16224,13 +16410,13 @@
       <c r="B45" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="C45" s="533" t="s">
+      <c r="C45" s="536" t="s">
         <v>366</v>
       </c>
-      <c r="D45" s="534"/>
-      <c r="E45" s="534"/>
-      <c r="F45" s="534"/>
-      <c r="G45" s="535"/>
+      <c r="D45" s="537"/>
+      <c r="E45" s="537"/>
+      <c r="F45" s="537"/>
+      <c r="G45" s="538"/>
       <c r="H45" s="30"/>
       <c r="I45" s="92"/>
       <c r="J45" s="92"/>
@@ -16288,33 +16474,33 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="22.5">
       <c r="A1" s="2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="536" t="s">
+      <c r="D1" s="539" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
       <c r="J1" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.5">
       <c r="A2" s="5" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5">
@@ -16334,7 +16520,7 @@
         <v>499</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>500</v>
@@ -16382,7 +16568,7 @@
         <v>382</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>512</v>
@@ -16398,16 +16584,16 @@
         <v>512</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="10" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>484</v>
@@ -16423,7 +16609,7 @@
         <v>484</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -16454,10 +16640,10 @@
     </row>
     <row r="8" spans="1:11" ht="15">
       <c r="A8" s="10" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>522</v>
@@ -16473,16 +16659,16 @@
         <v>522</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="10" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>515</v>
@@ -16492,10 +16678,10 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>515</v>
@@ -16579,614 +16765,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:238" s="425" customFormat="1" ht="29.25">
-      <c r="A1" s="522" t="s">
+      <c r="A1" s="525" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="522"/>
-      <c r="C1" s="522"/>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
-      <c r="L1" s="522"/>
-      <c r="M1" s="522"/>
-      <c r="N1" s="522"/>
+      <c r="B1" s="525"/>
+      <c r="C1" s="525"/>
+      <c r="D1" s="525"/>
+      <c r="E1" s="525"/>
+      <c r="F1" s="525"/>
+      <c r="G1" s="525"/>
+      <c r="H1" s="525"/>
+      <c r="I1" s="525"/>
+      <c r="J1" s="525"/>
+      <c r="K1" s="525"/>
+      <c r="L1" s="525"/>
+      <c r="M1" s="525"/>
+      <c r="N1" s="525"/>
     </row>
     <row r="2" spans="1:238" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="528" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="525" t="s">
+      <c r="B2" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="525" t="s">
+      <c r="C2" s="528" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="526" t="s">
+      <c r="D2" s="529" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="527" t="s">
+      <c r="E2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="527" t="s">
+      <c r="F2" s="530" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="528" t="s">
+      <c r="G2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="528"/>
-      <c r="I2" s="528" t="s">
+      <c r="H2" s="531"/>
+      <c r="I2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="528"/>
-      <c r="K2" s="527" t="s">
+      <c r="J2" s="531"/>
+      <c r="K2" s="530" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="527" t="s">
+      <c r="L2" s="530" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="525" t="s">
+      <c r="M2" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="525" t="s">
+      <c r="N2" s="528" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="523" t="s">
+      <c r="O2" s="526" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="523"/>
-      <c r="Q2" s="523"/>
-      <c r="R2" s="523"/>
-      <c r="S2" s="523"/>
-      <c r="T2" s="523"/>
-      <c r="U2" s="523"/>
-      <c r="V2" s="523"/>
-      <c r="W2" s="523"/>
-      <c r="X2" s="523"/>
-      <c r="Y2" s="523"/>
-      <c r="Z2" s="523"/>
-      <c r="AA2" s="523"/>
-      <c r="AB2" s="523"/>
-      <c r="AC2" s="523"/>
-      <c r="AD2" s="523"/>
-      <c r="AE2" s="523"/>
-      <c r="AF2" s="523"/>
-      <c r="AG2" s="523"/>
-      <c r="AH2" s="523"/>
-      <c r="AI2" s="523"/>
-      <c r="AJ2" s="523"/>
-      <c r="AK2" s="523"/>
-      <c r="AL2" s="523"/>
-      <c r="AM2" s="523"/>
-      <c r="AN2" s="523"/>
-      <c r="AO2" s="523"/>
-      <c r="AP2" s="523"/>
-      <c r="AQ2" s="524" t="s">
+      <c r="P2" s="526"/>
+      <c r="Q2" s="526"/>
+      <c r="R2" s="526"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
+      <c r="U2" s="526"/>
+      <c r="V2" s="526"/>
+      <c r="W2" s="526"/>
+      <c r="X2" s="526"/>
+      <c r="Y2" s="526"/>
+      <c r="Z2" s="526"/>
+      <c r="AA2" s="526"/>
+      <c r="AB2" s="526"/>
+      <c r="AC2" s="526"/>
+      <c r="AD2" s="526"/>
+      <c r="AE2" s="526"/>
+      <c r="AF2" s="526"/>
+      <c r="AG2" s="526"/>
+      <c r="AH2" s="526"/>
+      <c r="AI2" s="526"/>
+      <c r="AJ2" s="526"/>
+      <c r="AK2" s="526"/>
+      <c r="AL2" s="526"/>
+      <c r="AM2" s="526"/>
+      <c r="AN2" s="526"/>
+      <c r="AO2" s="526"/>
+      <c r="AP2" s="526"/>
+      <c r="AQ2" s="527" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="523"/>
-      <c r="AS2" s="523"/>
-      <c r="AT2" s="523"/>
-      <c r="AU2" s="523"/>
-      <c r="AV2" s="523"/>
-      <c r="AW2" s="523"/>
-      <c r="AX2" s="523"/>
-      <c r="AY2" s="523"/>
-      <c r="AZ2" s="523"/>
-      <c r="BA2" s="523"/>
-      <c r="BB2" s="523"/>
-      <c r="BC2" s="523"/>
-      <c r="BD2" s="523"/>
-      <c r="BE2" s="523"/>
-      <c r="BF2" s="523"/>
-      <c r="BG2" s="523"/>
-      <c r="BH2" s="523"/>
-      <c r="BI2" s="523"/>
-      <c r="BJ2" s="523"/>
-      <c r="BK2" s="523"/>
-      <c r="BL2" s="523"/>
-      <c r="BM2" s="523"/>
-      <c r="BN2" s="523"/>
-      <c r="BO2" s="523"/>
-      <c r="BP2" s="523"/>
-      <c r="BQ2" s="523"/>
-      <c r="BR2" s="523"/>
-      <c r="BS2" s="523"/>
-      <c r="BT2" s="523"/>
-      <c r="BU2" s="523"/>
-      <c r="BV2" s="524" t="s">
+      <c r="AR2" s="526"/>
+      <c r="AS2" s="526"/>
+      <c r="AT2" s="526"/>
+      <c r="AU2" s="526"/>
+      <c r="AV2" s="526"/>
+      <c r="AW2" s="526"/>
+      <c r="AX2" s="526"/>
+      <c r="AY2" s="526"/>
+      <c r="AZ2" s="526"/>
+      <c r="BA2" s="526"/>
+      <c r="BB2" s="526"/>
+      <c r="BC2" s="526"/>
+      <c r="BD2" s="526"/>
+      <c r="BE2" s="526"/>
+      <c r="BF2" s="526"/>
+      <c r="BG2" s="526"/>
+      <c r="BH2" s="526"/>
+      <c r="BI2" s="526"/>
+      <c r="BJ2" s="526"/>
+      <c r="BK2" s="526"/>
+      <c r="BL2" s="526"/>
+      <c r="BM2" s="526"/>
+      <c r="BN2" s="526"/>
+      <c r="BO2" s="526"/>
+      <c r="BP2" s="526"/>
+      <c r="BQ2" s="526"/>
+      <c r="BR2" s="526"/>
+      <c r="BS2" s="526"/>
+      <c r="BT2" s="526"/>
+      <c r="BU2" s="526"/>
+      <c r="BV2" s="527" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="523"/>
-      <c r="BX2" s="523"/>
-      <c r="BY2" s="523"/>
-      <c r="BZ2" s="523"/>
-      <c r="CA2" s="523"/>
-      <c r="CB2" s="523"/>
-      <c r="CC2" s="523"/>
-      <c r="CD2" s="523"/>
-      <c r="CE2" s="523"/>
-      <c r="CF2" s="523"/>
-      <c r="CG2" s="523"/>
-      <c r="CH2" s="523"/>
-      <c r="CI2" s="523"/>
-      <c r="CJ2" s="523"/>
-      <c r="CK2" s="523"/>
-      <c r="CL2" s="523"/>
-      <c r="CM2" s="523"/>
-      <c r="CN2" s="523"/>
-      <c r="CO2" s="523"/>
-      <c r="CP2" s="523"/>
-      <c r="CQ2" s="523"/>
-      <c r="CR2" s="523"/>
-      <c r="CS2" s="523"/>
-      <c r="CT2" s="523"/>
-      <c r="CU2" s="523"/>
-      <c r="CV2" s="523"/>
-      <c r="CW2" s="523"/>
-      <c r="CX2" s="523"/>
-      <c r="CY2" s="523"/>
-      <c r="CZ2" s="523" t="s">
+      <c r="BW2" s="526"/>
+      <c r="BX2" s="526"/>
+      <c r="BY2" s="526"/>
+      <c r="BZ2" s="526"/>
+      <c r="CA2" s="526"/>
+      <c r="CB2" s="526"/>
+      <c r="CC2" s="526"/>
+      <c r="CD2" s="526"/>
+      <c r="CE2" s="526"/>
+      <c r="CF2" s="526"/>
+      <c r="CG2" s="526"/>
+      <c r="CH2" s="526"/>
+      <c r="CI2" s="526"/>
+      <c r="CJ2" s="526"/>
+      <c r="CK2" s="526"/>
+      <c r="CL2" s="526"/>
+      <c r="CM2" s="526"/>
+      <c r="CN2" s="526"/>
+      <c r="CO2" s="526"/>
+      <c r="CP2" s="526"/>
+      <c r="CQ2" s="526"/>
+      <c r="CR2" s="526"/>
+      <c r="CS2" s="526"/>
+      <c r="CT2" s="526"/>
+      <c r="CU2" s="526"/>
+      <c r="CV2" s="526"/>
+      <c r="CW2" s="526"/>
+      <c r="CX2" s="526"/>
+      <c r="CY2" s="526"/>
+      <c r="CZ2" s="526" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="523"/>
-      <c r="DB2" s="523"/>
-      <c r="DC2" s="523"/>
-      <c r="DD2" s="523"/>
-      <c r="DE2" s="523"/>
-      <c r="DF2" s="523"/>
-      <c r="DG2" s="523"/>
-      <c r="DH2" s="523"/>
-      <c r="DI2" s="523"/>
-      <c r="DJ2" s="523"/>
-      <c r="DK2" s="523"/>
-      <c r="DL2" s="523"/>
-      <c r="DM2" s="523"/>
-      <c r="DN2" s="523"/>
-      <c r="DO2" s="523"/>
-      <c r="DP2" s="523"/>
-      <c r="DQ2" s="523"/>
-      <c r="DR2" s="523"/>
-      <c r="DS2" s="523"/>
-      <c r="DT2" s="523"/>
-      <c r="DU2" s="523"/>
-      <c r="DV2" s="523"/>
-      <c r="DW2" s="523"/>
-      <c r="DX2" s="523"/>
-      <c r="DY2" s="523"/>
-      <c r="DZ2" s="523"/>
-      <c r="EA2" s="523"/>
-      <c r="EB2" s="523"/>
-      <c r="EC2" s="523"/>
-      <c r="ED2" s="523"/>
-      <c r="EE2" s="524" t="s">
+      <c r="DA2" s="526"/>
+      <c r="DB2" s="526"/>
+      <c r="DC2" s="526"/>
+      <c r="DD2" s="526"/>
+      <c r="DE2" s="526"/>
+      <c r="DF2" s="526"/>
+      <c r="DG2" s="526"/>
+      <c r="DH2" s="526"/>
+      <c r="DI2" s="526"/>
+      <c r="DJ2" s="526"/>
+      <c r="DK2" s="526"/>
+      <c r="DL2" s="526"/>
+      <c r="DM2" s="526"/>
+      <c r="DN2" s="526"/>
+      <c r="DO2" s="526"/>
+      <c r="DP2" s="526"/>
+      <c r="DQ2" s="526"/>
+      <c r="DR2" s="526"/>
+      <c r="DS2" s="526"/>
+      <c r="DT2" s="526"/>
+      <c r="DU2" s="526"/>
+      <c r="DV2" s="526"/>
+      <c r="DW2" s="526"/>
+      <c r="DX2" s="526"/>
+      <c r="DY2" s="526"/>
+      <c r="DZ2" s="526"/>
+      <c r="EA2" s="526"/>
+      <c r="EB2" s="526"/>
+      <c r="EC2" s="526"/>
+      <c r="ED2" s="526"/>
+      <c r="EE2" s="527" t="s">
         <v>22</v>
       </c>
-      <c r="EF2" s="523"/>
-      <c r="EG2" s="523"/>
-      <c r="EH2" s="523"/>
-      <c r="EI2" s="523"/>
-      <c r="EJ2" s="523"/>
-      <c r="EK2" s="523"/>
-      <c r="EL2" s="523"/>
-      <c r="EM2" s="523"/>
-      <c r="EN2" s="523"/>
-      <c r="EO2" s="523"/>
-      <c r="EP2" s="523"/>
-      <c r="EQ2" s="523"/>
-      <c r="ER2" s="523"/>
-      <c r="ES2" s="523"/>
-      <c r="ET2" s="523"/>
-      <c r="EU2" s="523"/>
-      <c r="EV2" s="523"/>
-      <c r="EW2" s="523"/>
-      <c r="EX2" s="523"/>
-      <c r="EY2" s="523"/>
-      <c r="EZ2" s="523"/>
-      <c r="FA2" s="523"/>
-      <c r="FB2" s="523"/>
-      <c r="FC2" s="523"/>
-      <c r="FD2" s="523"/>
-      <c r="FE2" s="523"/>
-      <c r="FF2" s="523"/>
-      <c r="FG2" s="523"/>
-      <c r="FH2" s="523"/>
-      <c r="FI2" s="524" t="s">
+      <c r="EF2" s="526"/>
+      <c r="EG2" s="526"/>
+      <c r="EH2" s="526"/>
+      <c r="EI2" s="526"/>
+      <c r="EJ2" s="526"/>
+      <c r="EK2" s="526"/>
+      <c r="EL2" s="526"/>
+      <c r="EM2" s="526"/>
+      <c r="EN2" s="526"/>
+      <c r="EO2" s="526"/>
+      <c r="EP2" s="526"/>
+      <c r="EQ2" s="526"/>
+      <c r="ER2" s="526"/>
+      <c r="ES2" s="526"/>
+      <c r="ET2" s="526"/>
+      <c r="EU2" s="526"/>
+      <c r="EV2" s="526"/>
+      <c r="EW2" s="526"/>
+      <c r="EX2" s="526"/>
+      <c r="EY2" s="526"/>
+      <c r="EZ2" s="526"/>
+      <c r="FA2" s="526"/>
+      <c r="FB2" s="526"/>
+      <c r="FC2" s="526"/>
+      <c r="FD2" s="526"/>
+      <c r="FE2" s="526"/>
+      <c r="FF2" s="526"/>
+      <c r="FG2" s="526"/>
+      <c r="FH2" s="526"/>
+      <c r="FI2" s="527" t="s">
         <v>23</v>
       </c>
-      <c r="FJ2" s="524"/>
-      <c r="FK2" s="524"/>
-      <c r="FL2" s="524"/>
-      <c r="FM2" s="524"/>
-      <c r="FN2" s="524"/>
-      <c r="FO2" s="524"/>
-      <c r="FP2" s="524"/>
-      <c r="FQ2" s="524"/>
-      <c r="FR2" s="524"/>
-      <c r="FS2" s="524"/>
-      <c r="FT2" s="524"/>
-      <c r="FU2" s="524"/>
-      <c r="FV2" s="524"/>
-      <c r="FW2" s="524"/>
-      <c r="FX2" s="524"/>
-      <c r="FY2" s="524"/>
-      <c r="FZ2" s="524"/>
-      <c r="GA2" s="524"/>
-      <c r="GB2" s="524"/>
-      <c r="GC2" s="524"/>
-      <c r="GD2" s="524"/>
-      <c r="GE2" s="524"/>
-      <c r="GF2" s="524"/>
-      <c r="GG2" s="524"/>
-      <c r="GH2" s="524"/>
-      <c r="GI2" s="524"/>
-      <c r="GJ2" s="524"/>
-      <c r="GK2" s="524"/>
-      <c r="GL2" s="524"/>
-      <c r="GM2" s="524"/>
-      <c r="GN2" s="524" t="s">
+      <c r="FJ2" s="527"/>
+      <c r="FK2" s="527"/>
+      <c r="FL2" s="527"/>
+      <c r="FM2" s="527"/>
+      <c r="FN2" s="527"/>
+      <c r="FO2" s="527"/>
+      <c r="FP2" s="527"/>
+      <c r="FQ2" s="527"/>
+      <c r="FR2" s="527"/>
+      <c r="FS2" s="527"/>
+      <c r="FT2" s="527"/>
+      <c r="FU2" s="527"/>
+      <c r="FV2" s="527"/>
+      <c r="FW2" s="527"/>
+      <c r="FX2" s="527"/>
+      <c r="FY2" s="527"/>
+      <c r="FZ2" s="527"/>
+      <c r="GA2" s="527"/>
+      <c r="GB2" s="527"/>
+      <c r="GC2" s="527"/>
+      <c r="GD2" s="527"/>
+      <c r="GE2" s="527"/>
+      <c r="GF2" s="527"/>
+      <c r="GG2" s="527"/>
+      <c r="GH2" s="527"/>
+      <c r="GI2" s="527"/>
+      <c r="GJ2" s="527"/>
+      <c r="GK2" s="527"/>
+      <c r="GL2" s="527"/>
+      <c r="GM2" s="527"/>
+      <c r="GN2" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="GO2" s="524"/>
-      <c r="GP2" s="524"/>
-      <c r="GQ2" s="524"/>
-      <c r="GR2" s="524"/>
-      <c r="GS2" s="524"/>
-      <c r="GT2" s="524"/>
-      <c r="GU2" s="524"/>
-      <c r="GV2" s="524"/>
-      <c r="GW2" s="524"/>
-      <c r="GX2" s="524"/>
-      <c r="GY2" s="524"/>
-      <c r="GZ2" s="524"/>
-      <c r="HA2" s="524"/>
-      <c r="HB2" s="524"/>
-      <c r="HC2" s="524"/>
-      <c r="HD2" s="524"/>
-      <c r="HE2" s="524"/>
-      <c r="HF2" s="524"/>
-      <c r="HG2" s="524"/>
-      <c r="HH2" s="524"/>
-      <c r="HI2" s="524"/>
-      <c r="HJ2" s="524"/>
-      <c r="HK2" s="524"/>
-      <c r="HL2" s="524"/>
-      <c r="HM2" s="524"/>
-      <c r="HN2" s="524"/>
-      <c r="HO2" s="524"/>
-      <c r="HP2" s="524"/>
-      <c r="HQ2" s="524"/>
-      <c r="HR2" s="524"/>
-      <c r="HS2" s="523" t="s">
+      <c r="GO2" s="527"/>
+      <c r="GP2" s="527"/>
+      <c r="GQ2" s="527"/>
+      <c r="GR2" s="527"/>
+      <c r="GS2" s="527"/>
+      <c r="GT2" s="527"/>
+      <c r="GU2" s="527"/>
+      <c r="GV2" s="527"/>
+      <c r="GW2" s="527"/>
+      <c r="GX2" s="527"/>
+      <c r="GY2" s="527"/>
+      <c r="GZ2" s="527"/>
+      <c r="HA2" s="527"/>
+      <c r="HB2" s="527"/>
+      <c r="HC2" s="527"/>
+      <c r="HD2" s="527"/>
+      <c r="HE2" s="527"/>
+      <c r="HF2" s="527"/>
+      <c r="HG2" s="527"/>
+      <c r="HH2" s="527"/>
+      <c r="HI2" s="527"/>
+      <c r="HJ2" s="527"/>
+      <c r="HK2" s="527"/>
+      <c r="HL2" s="527"/>
+      <c r="HM2" s="527"/>
+      <c r="HN2" s="527"/>
+      <c r="HO2" s="527"/>
+      <c r="HP2" s="527"/>
+      <c r="HQ2" s="527"/>
+      <c r="HR2" s="527"/>
+      <c r="HS2" s="526" t="s">
         <v>25</v>
       </c>
-      <c r="HT2" s="523"/>
-      <c r="HU2" s="523"/>
-      <c r="HV2" s="523"/>
-      <c r="HW2" s="523"/>
-      <c r="HX2" s="523"/>
-      <c r="HY2" s="523"/>
-      <c r="HZ2" s="523"/>
-      <c r="IA2" s="523"/>
-      <c r="IB2" s="523"/>
-      <c r="IC2" s="523"/>
-      <c r="ID2" s="523"/>
+      <c r="HT2" s="526"/>
+      <c r="HU2" s="526"/>
+      <c r="HV2" s="526"/>
+      <c r="HW2" s="526"/>
+      <c r="HX2" s="526"/>
+      <c r="HY2" s="526"/>
+      <c r="HZ2" s="526"/>
+      <c r="IA2" s="526"/>
+      <c r="IB2" s="526"/>
+      <c r="IC2" s="526"/>
+      <c r="ID2" s="526"/>
     </row>
     <row r="3" spans="1:238" ht="16.5" customHeight="1">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="525"/>
-      <c r="D3" s="526"/>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="528"/>
-      <c r="H3" s="528"/>
-      <c r="I3" s="528"/>
-      <c r="J3" s="528"/>
-      <c r="K3" s="527"/>
-      <c r="L3" s="527"/>
-      <c r="M3" s="525"/>
-      <c r="N3" s="525"/>
-      <c r="O3" s="529" t="s">
+      <c r="A3" s="528"/>
+      <c r="B3" s="528"/>
+      <c r="C3" s="528"/>
+      <c r="D3" s="529"/>
+      <c r="E3" s="530"/>
+      <c r="F3" s="530"/>
+      <c r="G3" s="531"/>
+      <c r="H3" s="531"/>
+      <c r="I3" s="531"/>
+      <c r="J3" s="531"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="530"/>
+      <c r="M3" s="528"/>
+      <c r="N3" s="528"/>
+      <c r="O3" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
-      <c r="S3" s="529"/>
-      <c r="T3" s="529"/>
-      <c r="U3" s="529"/>
-      <c r="V3" s="529" t="s">
+      <c r="P3" s="532"/>
+      <c r="Q3" s="532"/>
+      <c r="R3" s="532"/>
+      <c r="S3" s="532"/>
+      <c r="T3" s="532"/>
+      <c r="U3" s="532"/>
+      <c r="V3" s="532" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="529"/>
-      <c r="X3" s="529"/>
-      <c r="Y3" s="529"/>
-      <c r="Z3" s="529"/>
-      <c r="AA3" s="529"/>
-      <c r="AB3" s="529"/>
-      <c r="AC3" s="529" t="s">
+      <c r="W3" s="532"/>
+      <c r="X3" s="532"/>
+      <c r="Y3" s="532"/>
+      <c r="Z3" s="532"/>
+      <c r="AA3" s="532"/>
+      <c r="AB3" s="532"/>
+      <c r="AC3" s="532" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="529"/>
-      <c r="AE3" s="529"/>
-      <c r="AF3" s="529"/>
-      <c r="AG3" s="529"/>
-      <c r="AH3" s="529"/>
-      <c r="AI3" s="529"/>
-      <c r="AJ3" s="529" t="s">
+      <c r="AD3" s="532"/>
+      <c r="AE3" s="532"/>
+      <c r="AF3" s="532"/>
+      <c r="AG3" s="532"/>
+      <c r="AH3" s="532"/>
+      <c r="AI3" s="532"/>
+      <c r="AJ3" s="532" t="s">
         <v>29</v>
       </c>
-      <c r="AK3" s="529"/>
-      <c r="AL3" s="529"/>
-      <c r="AM3" s="529"/>
-      <c r="AN3" s="529"/>
-      <c r="AO3" s="529"/>
-      <c r="AP3" s="529"/>
-      <c r="AQ3" s="529" t="s">
+      <c r="AK3" s="532"/>
+      <c r="AL3" s="532"/>
+      <c r="AM3" s="532"/>
+      <c r="AN3" s="532"/>
+      <c r="AO3" s="532"/>
+      <c r="AP3" s="532"/>
+      <c r="AQ3" s="532" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="529"/>
-      <c r="AS3" s="529"/>
-      <c r="AT3" s="529"/>
-      <c r="AU3" s="529"/>
-      <c r="AV3" s="529"/>
-      <c r="AW3" s="529"/>
-      <c r="AX3" s="529" t="s">
+      <c r="AR3" s="532"/>
+      <c r="AS3" s="532"/>
+      <c r="AT3" s="532"/>
+      <c r="AU3" s="532"/>
+      <c r="AV3" s="532"/>
+      <c r="AW3" s="532"/>
+      <c r="AX3" s="532" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="529"/>
-      <c r="AZ3" s="529"/>
-      <c r="BA3" s="529"/>
-      <c r="BB3" s="529"/>
-      <c r="BC3" s="529"/>
-      <c r="BD3" s="529"/>
-      <c r="BE3" s="529" t="s">
+      <c r="AY3" s="532"/>
+      <c r="AZ3" s="532"/>
+      <c r="BA3" s="532"/>
+      <c r="BB3" s="532"/>
+      <c r="BC3" s="532"/>
+      <c r="BD3" s="532"/>
+      <c r="BE3" s="532" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="529"/>
-      <c r="BG3" s="529"/>
-      <c r="BH3" s="529"/>
-      <c r="BI3" s="529"/>
-      <c r="BJ3" s="529"/>
-      <c r="BK3" s="529"/>
-      <c r="BL3" s="529" t="s">
+      <c r="BF3" s="532"/>
+      <c r="BG3" s="532"/>
+      <c r="BH3" s="532"/>
+      <c r="BI3" s="532"/>
+      <c r="BJ3" s="532"/>
+      <c r="BK3" s="532"/>
+      <c r="BL3" s="532" t="s">
         <v>33</v>
       </c>
-      <c r="BM3" s="529"/>
-      <c r="BN3" s="529"/>
-      <c r="BO3" s="529"/>
-      <c r="BP3" s="529"/>
-      <c r="BQ3" s="529"/>
-      <c r="BR3" s="529"/>
-      <c r="BS3" s="529" t="s">
+      <c r="BM3" s="532"/>
+      <c r="BN3" s="532"/>
+      <c r="BO3" s="532"/>
+      <c r="BP3" s="532"/>
+      <c r="BQ3" s="532"/>
+      <c r="BR3" s="532"/>
+      <c r="BS3" s="532" t="s">
         <v>34</v>
       </c>
-      <c r="BT3" s="529"/>
-      <c r="BU3" s="529"/>
-      <c r="BV3" s="529"/>
-      <c r="BW3" s="529"/>
-      <c r="BX3" s="529"/>
-      <c r="BY3" s="529"/>
-      <c r="BZ3" s="529" t="s">
+      <c r="BT3" s="532"/>
+      <c r="BU3" s="532"/>
+      <c r="BV3" s="532"/>
+      <c r="BW3" s="532"/>
+      <c r="BX3" s="532"/>
+      <c r="BY3" s="532"/>
+      <c r="BZ3" s="532" t="s">
         <v>35</v>
       </c>
-      <c r="CA3" s="529"/>
-      <c r="CB3" s="529"/>
-      <c r="CC3" s="529"/>
-      <c r="CD3" s="529"/>
-      <c r="CE3" s="529"/>
-      <c r="CF3" s="529"/>
-      <c r="CG3" s="529" t="s">
+      <c r="CA3" s="532"/>
+      <c r="CB3" s="532"/>
+      <c r="CC3" s="532"/>
+      <c r="CD3" s="532"/>
+      <c r="CE3" s="532"/>
+      <c r="CF3" s="532"/>
+      <c r="CG3" s="532" t="s">
         <v>36</v>
       </c>
-      <c r="CH3" s="529"/>
-      <c r="CI3" s="529"/>
-      <c r="CJ3" s="529"/>
-      <c r="CK3" s="529"/>
-      <c r="CL3" s="529"/>
-      <c r="CM3" s="529"/>
-      <c r="CN3" s="529" t="s">
+      <c r="CH3" s="532"/>
+      <c r="CI3" s="532"/>
+      <c r="CJ3" s="532"/>
+      <c r="CK3" s="532"/>
+      <c r="CL3" s="532"/>
+      <c r="CM3" s="532"/>
+      <c r="CN3" s="532" t="s">
         <v>37</v>
       </c>
-      <c r="CO3" s="529"/>
-      <c r="CP3" s="529"/>
-      <c r="CQ3" s="529"/>
-      <c r="CR3" s="529"/>
-      <c r="CS3" s="529"/>
-      <c r="CT3" s="529"/>
-      <c r="CU3" s="529" t="s">
+      <c r="CO3" s="532"/>
+      <c r="CP3" s="532"/>
+      <c r="CQ3" s="532"/>
+      <c r="CR3" s="532"/>
+      <c r="CS3" s="532"/>
+      <c r="CT3" s="532"/>
+      <c r="CU3" s="532" t="s">
         <v>38</v>
       </c>
-      <c r="CV3" s="529"/>
-      <c r="CW3" s="529"/>
-      <c r="CX3" s="529"/>
-      <c r="CY3" s="529"/>
-      <c r="CZ3" s="529"/>
-      <c r="DA3" s="529"/>
-      <c r="DB3" s="529" t="s">
+      <c r="CV3" s="532"/>
+      <c r="CW3" s="532"/>
+      <c r="CX3" s="532"/>
+      <c r="CY3" s="532"/>
+      <c r="CZ3" s="532"/>
+      <c r="DA3" s="532"/>
+      <c r="DB3" s="532" t="s">
         <v>39</v>
       </c>
-      <c r="DC3" s="529"/>
-      <c r="DD3" s="529"/>
-      <c r="DE3" s="529"/>
-      <c r="DF3" s="529"/>
-      <c r="DG3" s="529"/>
-      <c r="DH3" s="529"/>
-      <c r="DI3" s="529" t="s">
+      <c r="DC3" s="532"/>
+      <c r="DD3" s="532"/>
+      <c r="DE3" s="532"/>
+      <c r="DF3" s="532"/>
+      <c r="DG3" s="532"/>
+      <c r="DH3" s="532"/>
+      <c r="DI3" s="532" t="s">
         <v>40</v>
       </c>
-      <c r="DJ3" s="529"/>
-      <c r="DK3" s="529"/>
-      <c r="DL3" s="529"/>
-      <c r="DM3" s="529"/>
-      <c r="DN3" s="529"/>
-      <c r="DO3" s="529"/>
-      <c r="DP3" s="529" t="s">
+      <c r="DJ3" s="532"/>
+      <c r="DK3" s="532"/>
+      <c r="DL3" s="532"/>
+      <c r="DM3" s="532"/>
+      <c r="DN3" s="532"/>
+      <c r="DO3" s="532"/>
+      <c r="DP3" s="532" t="s">
         <v>41</v>
       </c>
-      <c r="DQ3" s="529"/>
-      <c r="DR3" s="529"/>
-      <c r="DS3" s="529"/>
-      <c r="DT3" s="529"/>
-      <c r="DU3" s="529"/>
-      <c r="DV3" s="529"/>
-      <c r="DW3" s="529" t="s">
+      <c r="DQ3" s="532"/>
+      <c r="DR3" s="532"/>
+      <c r="DS3" s="532"/>
+      <c r="DT3" s="532"/>
+      <c r="DU3" s="532"/>
+      <c r="DV3" s="532"/>
+      <c r="DW3" s="532" t="s">
         <v>42</v>
       </c>
-      <c r="DX3" s="529"/>
-      <c r="DY3" s="529"/>
-      <c r="DZ3" s="529"/>
-      <c r="EA3" s="529"/>
-      <c r="EB3" s="529"/>
-      <c r="EC3" s="529"/>
-      <c r="ED3" s="529" t="s">
+      <c r="DX3" s="532"/>
+      <c r="DY3" s="532"/>
+      <c r="DZ3" s="532"/>
+      <c r="EA3" s="532"/>
+      <c r="EB3" s="532"/>
+      <c r="EC3" s="532"/>
+      <c r="ED3" s="532" t="s">
         <v>43</v>
       </c>
-      <c r="EE3" s="529"/>
-      <c r="EF3" s="529"/>
-      <c r="EG3" s="529"/>
-      <c r="EH3" s="529"/>
-      <c r="EI3" s="529"/>
-      <c r="EJ3" s="529"/>
-      <c r="EK3" s="529" t="s">
+      <c r="EE3" s="532"/>
+      <c r="EF3" s="532"/>
+      <c r="EG3" s="532"/>
+      <c r="EH3" s="532"/>
+      <c r="EI3" s="532"/>
+      <c r="EJ3" s="532"/>
+      <c r="EK3" s="532" t="s">
         <v>44</v>
       </c>
-      <c r="EL3" s="529"/>
-      <c r="EM3" s="529"/>
-      <c r="EN3" s="529"/>
-      <c r="EO3" s="529"/>
-      <c r="EP3" s="529"/>
-      <c r="EQ3" s="529"/>
-      <c r="ER3" s="529" t="s">
+      <c r="EL3" s="532"/>
+      <c r="EM3" s="532"/>
+      <c r="EN3" s="532"/>
+      <c r="EO3" s="532"/>
+      <c r="EP3" s="532"/>
+      <c r="EQ3" s="532"/>
+      <c r="ER3" s="532" t="s">
         <v>45</v>
       </c>
-      <c r="ES3" s="529"/>
-      <c r="ET3" s="529"/>
-      <c r="EU3" s="529"/>
-      <c r="EV3" s="529"/>
-      <c r="EW3" s="529"/>
-      <c r="EX3" s="529"/>
-      <c r="EY3" s="529" t="s">
+      <c r="ES3" s="532"/>
+      <c r="ET3" s="532"/>
+      <c r="EU3" s="532"/>
+      <c r="EV3" s="532"/>
+      <c r="EW3" s="532"/>
+      <c r="EX3" s="532"/>
+      <c r="EY3" s="532" t="s">
         <v>46</v>
       </c>
-      <c r="EZ3" s="529"/>
-      <c r="FA3" s="529"/>
-      <c r="FB3" s="529"/>
-      <c r="FC3" s="529"/>
-      <c r="FD3" s="529"/>
-      <c r="FE3" s="529"/>
-      <c r="FF3" s="529" t="s">
+      <c r="EZ3" s="532"/>
+      <c r="FA3" s="532"/>
+      <c r="FB3" s="532"/>
+      <c r="FC3" s="532"/>
+      <c r="FD3" s="532"/>
+      <c r="FE3" s="532"/>
+      <c r="FF3" s="532" t="s">
         <v>47</v>
       </c>
-      <c r="FG3" s="529"/>
-      <c r="FH3" s="529"/>
-      <c r="FI3" s="529"/>
-      <c r="FJ3" s="529"/>
-      <c r="FK3" s="529"/>
-      <c r="FL3" s="529"/>
-      <c r="FM3" s="529" t="s">
+      <c r="FG3" s="532"/>
+      <c r="FH3" s="532"/>
+      <c r="FI3" s="532"/>
+      <c r="FJ3" s="532"/>
+      <c r="FK3" s="532"/>
+      <c r="FL3" s="532"/>
+      <c r="FM3" s="532" t="s">
         <v>48</v>
       </c>
-      <c r="FN3" s="529"/>
-      <c r="FO3" s="529"/>
-      <c r="FP3" s="529"/>
-      <c r="FQ3" s="529"/>
-      <c r="FR3" s="529"/>
-      <c r="FS3" s="529"/>
-      <c r="FT3" s="529" t="s">
+      <c r="FN3" s="532"/>
+      <c r="FO3" s="532"/>
+      <c r="FP3" s="532"/>
+      <c r="FQ3" s="532"/>
+      <c r="FR3" s="532"/>
+      <c r="FS3" s="532"/>
+      <c r="FT3" s="532" t="s">
         <v>49</v>
       </c>
-      <c r="FU3" s="529"/>
-      <c r="FV3" s="529"/>
-      <c r="FW3" s="529"/>
-      <c r="FX3" s="529"/>
-      <c r="FY3" s="529"/>
-      <c r="FZ3" s="529"/>
-      <c r="GA3" s="529" t="s">
+      <c r="FU3" s="532"/>
+      <c r="FV3" s="532"/>
+      <c r="FW3" s="532"/>
+      <c r="FX3" s="532"/>
+      <c r="FY3" s="532"/>
+      <c r="FZ3" s="532"/>
+      <c r="GA3" s="532" t="s">
         <v>50</v>
       </c>
-      <c r="GB3" s="529"/>
-      <c r="GC3" s="529"/>
-      <c r="GD3" s="529"/>
-      <c r="GE3" s="529"/>
-      <c r="GF3" s="529"/>
-      <c r="GG3" s="529"/>
-      <c r="GH3" s="529" t="s">
+      <c r="GB3" s="532"/>
+      <c r="GC3" s="532"/>
+      <c r="GD3" s="532"/>
+      <c r="GE3" s="532"/>
+      <c r="GF3" s="532"/>
+      <c r="GG3" s="532"/>
+      <c r="GH3" s="532" t="s">
         <v>51</v>
       </c>
-      <c r="GI3" s="529"/>
-      <c r="GJ3" s="529"/>
-      <c r="GK3" s="529"/>
-      <c r="GL3" s="529"/>
-      <c r="GM3" s="529"/>
-      <c r="GN3" s="529"/>
-      <c r="GO3" s="529" t="s">
+      <c r="GI3" s="532"/>
+      <c r="GJ3" s="532"/>
+      <c r="GK3" s="532"/>
+      <c r="GL3" s="532"/>
+      <c r="GM3" s="532"/>
+      <c r="GN3" s="532"/>
+      <c r="GO3" s="532" t="s">
         <v>52</v>
       </c>
-      <c r="GP3" s="529"/>
-      <c r="GQ3" s="529"/>
-      <c r="GR3" s="529"/>
-      <c r="GS3" s="529"/>
-      <c r="GT3" s="529"/>
-      <c r="GU3" s="529"/>
-      <c r="GV3" s="529" t="s">
+      <c r="GP3" s="532"/>
+      <c r="GQ3" s="532"/>
+      <c r="GR3" s="532"/>
+      <c r="GS3" s="532"/>
+      <c r="GT3" s="532"/>
+      <c r="GU3" s="532"/>
+      <c r="GV3" s="532" t="s">
         <v>53</v>
       </c>
-      <c r="GW3" s="529"/>
-      <c r="GX3" s="529"/>
-      <c r="GY3" s="529"/>
-      <c r="GZ3" s="529"/>
-      <c r="HA3" s="529"/>
-      <c r="HB3" s="529"/>
-      <c r="HC3" s="529" t="s">
+      <c r="GW3" s="532"/>
+      <c r="GX3" s="532"/>
+      <c r="GY3" s="532"/>
+      <c r="GZ3" s="532"/>
+      <c r="HA3" s="532"/>
+      <c r="HB3" s="532"/>
+      <c r="HC3" s="532" t="s">
         <v>54</v>
       </c>
-      <c r="HD3" s="529"/>
-      <c r="HE3" s="529"/>
-      <c r="HF3" s="529"/>
-      <c r="HG3" s="529"/>
-      <c r="HH3" s="529"/>
-      <c r="HI3" s="529"/>
-      <c r="HJ3" s="529" t="s">
+      <c r="HD3" s="532"/>
+      <c r="HE3" s="532"/>
+      <c r="HF3" s="532"/>
+      <c r="HG3" s="532"/>
+      <c r="HH3" s="532"/>
+      <c r="HI3" s="532"/>
+      <c r="HJ3" s="532" t="s">
         <v>55</v>
       </c>
-      <c r="HK3" s="529"/>
-      <c r="HL3" s="529"/>
-      <c r="HM3" s="529"/>
-      <c r="HN3" s="529"/>
-      <c r="HO3" s="529"/>
-      <c r="HP3" s="529"/>
-      <c r="HQ3" s="529" t="s">
+      <c r="HK3" s="532"/>
+      <c r="HL3" s="532"/>
+      <c r="HM3" s="532"/>
+      <c r="HN3" s="532"/>
+      <c r="HO3" s="532"/>
+      <c r="HP3" s="532"/>
+      <c r="HQ3" s="532" t="s">
         <v>56</v>
       </c>
-      <c r="HR3" s="529"/>
-      <c r="HS3" s="529"/>
-      <c r="HT3" s="529"/>
-      <c r="HU3" s="529"/>
-      <c r="HV3" s="529"/>
-      <c r="HW3" s="529"/>
-      <c r="HX3" s="529" t="s">
+      <c r="HR3" s="532"/>
+      <c r="HS3" s="532"/>
+      <c r="HT3" s="532"/>
+      <c r="HU3" s="532"/>
+      <c r="HV3" s="532"/>
+      <c r="HW3" s="532"/>
+      <c r="HX3" s="532" t="s">
         <v>57</v>
       </c>
-      <c r="HY3" s="529"/>
-      <c r="HZ3" s="529"/>
-      <c r="IA3" s="529"/>
-      <c r="IB3" s="529"/>
-      <c r="IC3" s="529"/>
-      <c r="ID3" s="529"/>
+      <c r="HY3" s="532"/>
+      <c r="HZ3" s="532"/>
+      <c r="IA3" s="532"/>
+      <c r="IB3" s="532"/>
+      <c r="IC3" s="532"/>
+      <c r="ID3" s="532"/>
     </row>
     <row r="4" spans="1:238" s="426" customFormat="1" ht="113.25" customHeight="1">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
-      <c r="D4" s="526"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="527"/>
+      <c r="A4" s="528"/>
+      <c r="B4" s="528"/>
+      <c r="C4" s="528"/>
+      <c r="D4" s="529"/>
+      <c r="E4" s="530"/>
+      <c r="F4" s="530"/>
       <c r="G4" s="440" t="s">
         <v>58</v>
       </c>
@@ -17199,10 +17385,10 @@
       <c r="J4" s="439" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="527"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="525"/>
-      <c r="N4" s="525"/>
+      <c r="K4" s="530"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="528"/>
+      <c r="N4" s="528"/>
       <c r="O4" s="468">
         <v>43497</v>
       </c>
@@ -34177,8 +34363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -34213,26 +34399,26 @@
       <c r="F2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="536" t="s">
+      <c r="G2" s="539" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="536"/>
-      <c r="I2" s="536"/>
-      <c r="J2" s="536"/>
-      <c r="K2" s="536"/>
-      <c r="L2" s="536"/>
-      <c r="M2" s="536"/>
-      <c r="N2" s="536"/>
+      <c r="H2" s="539"/>
+      <c r="I2" s="539"/>
+      <c r="J2" s="539"/>
+      <c r="K2" s="539"/>
+      <c r="L2" s="539"/>
+      <c r="M2" s="539"/>
+      <c r="N2" s="539"/>
     </row>
     <row r="3" spans="2:17" ht="22.5">
       <c r="B3" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="537" t="s">
+      <c r="C3" s="540" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="537"/>
-      <c r="E3" s="537"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="540"/>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -34895,7 +35081,7 @@
       </c>
       <c r="G26" s="267"/>
       <c r="H26" s="493" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="J26" s="97"/>
       <c r="L26" s="370" t="s">
@@ -34932,7 +35118,7 @@
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="383" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="J27" s="97"/>
       <c r="L27" s="356" t="s">
@@ -35319,53 +35505,53 @@
       <c r="J42" s="92"/>
     </row>
     <row r="43" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B43" s="538" t="s">
+      <c r="B43" s="541" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="539"/>
-      <c r="D43" s="539"/>
-      <c r="E43" s="539"/>
-      <c r="F43" s="539"/>
-      <c r="G43" s="540"/>
+      <c r="C43" s="542"/>
+      <c r="D43" s="542"/>
+      <c r="E43" s="542"/>
+      <c r="F43" s="542"/>
+      <c r="G43" s="543"/>
       <c r="H43" s="30"/>
       <c r="I43" s="92"/>
       <c r="J43" s="92"/>
     </row>
     <row r="44" spans="2:16" s="24" customFormat="1" ht="409.35" hidden="1" customHeight="1">
-      <c r="B44" s="530" t="s">
+      <c r="B44" s="533" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="531"/>
-      <c r="D44" s="531"/>
-      <c r="E44" s="531"/>
-      <c r="F44" s="531"/>
-      <c r="G44" s="532"/>
+      <c r="C44" s="534"/>
+      <c r="D44" s="534"/>
+      <c r="E44" s="534"/>
+      <c r="F44" s="534"/>
+      <c r="G44" s="535"/>
       <c r="H44" s="30"/>
       <c r="I44" s="92"/>
       <c r="J44" s="92"/>
     </row>
     <row r="45" spans="2:16" s="24" customFormat="1" ht="16.5" hidden="1">
-      <c r="B45" s="538" t="s">
+      <c r="B45" s="541" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="539"/>
-      <c r="D45" s="539"/>
-      <c r="E45" s="539"/>
-      <c r="F45" s="539"/>
-      <c r="G45" s="540"/>
+      <c r="C45" s="542"/>
+      <c r="D45" s="542"/>
+      <c r="E45" s="542"/>
+      <c r="F45" s="542"/>
+      <c r="G45" s="543"/>
       <c r="H45" s="30"/>
       <c r="I45" s="92"/>
       <c r="J45" s="92"/>
     </row>
     <row r="46" spans="2:16" s="24" customFormat="1" ht="215.1" hidden="1" customHeight="1">
-      <c r="B46" s="530" t="s">
+      <c r="B46" s="533" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="531"/>
-      <c r="D46" s="531"/>
-      <c r="E46" s="531"/>
-      <c r="F46" s="531"/>
-      <c r="G46" s="532"/>
+      <c r="C46" s="534"/>
+      <c r="D46" s="534"/>
+      <c r="E46" s="534"/>
+      <c r="F46" s="534"/>
+      <c r="G46" s="535"/>
       <c r="H46" s="30"/>
       <c r="I46" s="92"/>
       <c r="J46" s="92"/>
@@ -35399,13 +35585,13 @@
       <c r="B49" s="388" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="533" t="s">
+      <c r="C49" s="536" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="534"/>
-      <c r="E49" s="534"/>
-      <c r="F49" s="534"/>
-      <c r="G49" s="535"/>
+      <c r="D49" s="537"/>
+      <c r="E49" s="537"/>
+      <c r="F49" s="537"/>
+      <c r="G49" s="538"/>
       <c r="H49" s="30"/>
       <c r="I49" s="92"/>
       <c r="J49" s="92"/>
@@ -35414,13 +35600,13 @@
       <c r="B50" s="388" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="533" t="s">
+      <c r="C50" s="536" t="s">
         <v>364</v>
       </c>
-      <c r="D50" s="534"/>
-      <c r="E50" s="534"/>
-      <c r="F50" s="534"/>
-      <c r="G50" s="535"/>
+      <c r="D50" s="537"/>
+      <c r="E50" s="537"/>
+      <c r="F50" s="537"/>
+      <c r="G50" s="538"/>
       <c r="H50" s="30"/>
       <c r="I50" s="92"/>
       <c r="J50" s="92"/>
@@ -35429,13 +35615,13 @@
       <c r="B51" s="388" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="533" t="s">
+      <c r="C51" s="536" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="534"/>
-      <c r="E51" s="534"/>
-      <c r="F51" s="534"/>
-      <c r="G51" s="535"/>
+      <c r="D51" s="537"/>
+      <c r="E51" s="537"/>
+      <c r="F51" s="537"/>
+      <c r="G51" s="538"/>
       <c r="H51" s="30"/>
       <c r="I51" s="92"/>
       <c r="J51" s="92"/>
@@ -35474,7 +35660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -35501,16 +35687,16 @@
       <c r="D2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="541" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F2" s="536"/>
-      <c r="G2" s="536"/>
-      <c r="H2" s="536"/>
-      <c r="I2" s="536"/>
-      <c r="J2" s="536"/>
-      <c r="K2" s="536"/>
-      <c r="L2" s="536"/>
+      <c r="E2" s="544" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F2" s="539"/>
+      <c r="G2" s="539"/>
+      <c r="H2" s="539"/>
+      <c r="I2" s="539"/>
+      <c r="J2" s="539"/>
+      <c r="K2" s="539"/>
+      <c r="L2" s="539"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="J3" s="6" t="s">
@@ -35519,17 +35705,17 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="336" customFormat="1" ht="15.75">
-      <c r="A4" s="542" t="s">
+      <c r="A4" s="545" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="542"/>
-      <c r="C4" s="542"/>
-      <c r="D4" s="542"/>
-      <c r="E4" s="542"/>
-      <c r="F4" s="542"/>
-      <c r="G4" s="542"/>
-      <c r="H4" s="542"/>
-      <c r="I4" s="542"/>
+      <c r="B4" s="545"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="545"/>
+      <c r="E4" s="545"/>
+      <c r="F4" s="545"/>
+      <c r="G4" s="545"/>
+      <c r="H4" s="545"/>
+      <c r="I4" s="545"/>
     </row>
     <row r="5" spans="1:14" s="337" customFormat="1" ht="16.5">
       <c r="A5" s="341" t="s">
@@ -35547,12 +35733,12 @@
       <c r="E5" s="341" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="543" t="s">
+      <c r="F5" s="546" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="543"/>
-      <c r="H5" s="543"/>
-      <c r="I5" s="543"/>
+      <c r="G5" s="546"/>
+      <c r="H5" s="546"/>
+      <c r="I5" s="546"/>
       <c r="J5" s="9" t="s">
         <v>272</v>
       </c>
@@ -35585,12 +35771,12 @@
       <c r="E6" s="342">
         <v>0</v>
       </c>
-      <c r="F6" s="544" t="s">
+      <c r="F6" s="547" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="545"/>
-      <c r="H6" s="545"/>
-      <c r="I6" s="546"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="548"/>
+      <c r="I6" s="549"/>
       <c r="J6" s="342" t="s">
         <v>374</v>
       </c>
@@ -35621,12 +35807,12 @@
       <c r="E7" s="343">
         <v>0</v>
       </c>
-      <c r="F7" s="547" t="s">
+      <c r="F7" s="550" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="548"/>
-      <c r="H7" s="548"/>
-      <c r="I7" s="549"/>
+      <c r="G7" s="551"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="552"/>
       <c r="J7" s="343" t="s">
         <v>376</v>
       </c>
@@ -35640,7 +35826,7 @@
         <v>377</v>
       </c>
       <c r="N7" s="516" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="337" customFormat="1" ht="16.5">
@@ -35657,12 +35843,12 @@
         <v>4</v>
       </c>
       <c r="E8" s="343"/>
-      <c r="F8" s="550" t="s">
+      <c r="F8" s="553" t="s">
         <v>380</v>
       </c>
-      <c r="G8" s="551"/>
-      <c r="H8" s="551"/>
-      <c r="I8" s="552"/>
+      <c r="G8" s="554"/>
+      <c r="H8" s="554"/>
+      <c r="I8" s="555"/>
       <c r="J8" s="343" t="s">
         <v>378</v>
       </c>
@@ -35695,12 +35881,12 @@
       <c r="E9" s="342">
         <v>0</v>
       </c>
-      <c r="F9" s="544" t="s">
+      <c r="F9" s="547" t="s">
         <v>383</v>
       </c>
-      <c r="G9" s="545"/>
-      <c r="H9" s="545"/>
-      <c r="I9" s="546"/>
+      <c r="G9" s="548"/>
+      <c r="H9" s="548"/>
+      <c r="I9" s="549"/>
       <c r="J9" s="342" t="s">
         <v>382</v>
       </c>
@@ -35733,12 +35919,12 @@
       <c r="E10" s="343">
         <v>0</v>
       </c>
-      <c r="F10" s="550" t="s">
+      <c r="F10" s="553" t="s">
         <v>386</v>
       </c>
-      <c r="G10" s="551"/>
-      <c r="H10" s="551"/>
-      <c r="I10" s="552"/>
+      <c r="G10" s="554"/>
+      <c r="H10" s="554"/>
+      <c r="I10" s="555"/>
       <c r="J10" s="343" t="s">
         <v>385</v>
       </c>
@@ -35769,12 +35955,12 @@
       <c r="E11" s="343">
         <v>0</v>
       </c>
-      <c r="F11" s="550" t="s">
+      <c r="F11" s="553" t="s">
         <v>387</v>
       </c>
-      <c r="G11" s="551"/>
-      <c r="H11" s="551"/>
-      <c r="I11" s="552"/>
+      <c r="G11" s="554"/>
+      <c r="H11" s="554"/>
+      <c r="I11" s="555"/>
       <c r="J11" s="343" t="s">
         <v>318</v>
       </c>
@@ -35805,12 +35991,12 @@
       <c r="E12" s="343">
         <v>3</v>
       </c>
-      <c r="F12" s="550" t="s">
+      <c r="F12" s="553" t="s">
         <v>390</v>
       </c>
-      <c r="G12" s="551"/>
-      <c r="H12" s="551"/>
-      <c r="I12" s="552"/>
+      <c r="G12" s="554"/>
+      <c r="H12" s="554"/>
+      <c r="I12" s="555"/>
       <c r="J12" s="343" t="s">
         <v>388</v>
       </c>
@@ -35841,12 +36027,12 @@
       <c r="E13" s="343">
         <v>3</v>
       </c>
-      <c r="F13" s="550" t="s">
+      <c r="F13" s="553" t="s">
         <v>393</v>
       </c>
-      <c r="G13" s="551"/>
-      <c r="H13" s="551"/>
-      <c r="I13" s="552"/>
+      <c r="G13" s="554"/>
+      <c r="H13" s="554"/>
+      <c r="I13" s="555"/>
       <c r="J13" s="343" t="s">
         <v>391</v>
       </c>
@@ -35877,12 +36063,12 @@
       <c r="E14" s="343">
         <v>0</v>
       </c>
-      <c r="F14" s="550" t="s">
+      <c r="F14" s="553" t="s">
         <v>396</v>
       </c>
-      <c r="G14" s="551"/>
-      <c r="H14" s="551"/>
-      <c r="I14" s="552"/>
+      <c r="G14" s="554"/>
+      <c r="H14" s="554"/>
+      <c r="I14" s="555"/>
       <c r="J14" s="343" t="s">
         <v>394</v>
       </c>
@@ -35915,12 +36101,12 @@
       <c r="E15" s="343">
         <v>3</v>
       </c>
-      <c r="F15" s="550" t="s">
+      <c r="F15" s="553" t="s">
         <v>400</v>
       </c>
-      <c r="G15" s="551"/>
-      <c r="H15" s="551"/>
-      <c r="I15" s="552"/>
+      <c r="G15" s="554"/>
+      <c r="H15" s="554"/>
+      <c r="I15" s="555"/>
       <c r="J15" s="343" t="s">
         <v>398</v>
       </c>
@@ -35951,12 +36137,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="343"/>
-      <c r="F16" s="550" t="s">
+      <c r="F16" s="553" t="s">
         <v>405</v>
       </c>
-      <c r="G16" s="551"/>
-      <c r="H16" s="551"/>
-      <c r="I16" s="552"/>
+      <c r="G16" s="554"/>
+      <c r="H16" s="554"/>
+      <c r="I16" s="555"/>
       <c r="J16" s="343" t="s">
         <v>402</v>
       </c>
@@ -35983,12 +36169,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="343"/>
-      <c r="F17" s="550" t="s">
+      <c r="F17" s="553" t="s">
         <v>410</v>
       </c>
-      <c r="G17" s="551"/>
-      <c r="H17" s="551"/>
-      <c r="I17" s="552"/>
+      <c r="G17" s="554"/>
+      <c r="H17" s="554"/>
+      <c r="I17" s="555"/>
       <c r="J17" s="343" t="s">
         <v>407</v>
       </c>
@@ -36015,12 +36201,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="343"/>
-      <c r="F18" s="550" t="s">
+      <c r="F18" s="553" t="s">
         <v>413</v>
       </c>
-      <c r="G18" s="551"/>
-      <c r="H18" s="551"/>
-      <c r="I18" s="552"/>
+      <c r="G18" s="554"/>
+      <c r="H18" s="554"/>
+      <c r="I18" s="555"/>
       <c r="J18" s="343" t="s">
         <v>411</v>
       </c>
@@ -36047,12 +36233,12 @@
         <v>8</v>
       </c>
       <c r="E19" s="343"/>
-      <c r="F19" s="550" t="s">
+      <c r="F19" s="553" t="s">
         <v>416</v>
       </c>
-      <c r="G19" s="551"/>
-      <c r="H19" s="551"/>
-      <c r="I19" s="552"/>
+      <c r="G19" s="554"/>
+      <c r="H19" s="554"/>
+      <c r="I19" s="555"/>
       <c r="J19" s="343" t="s">
         <v>414</v>
       </c>
@@ -36079,12 +36265,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="343"/>
-      <c r="F20" s="553" t="s">
+      <c r="F20" s="556" t="s">
         <v>419</v>
       </c>
-      <c r="G20" s="551"/>
-      <c r="H20" s="551"/>
-      <c r="I20" s="552"/>
+      <c r="G20" s="554"/>
+      <c r="H20" s="554"/>
+      <c r="I20" s="555"/>
       <c r="J20" s="343" t="s">
         <v>417</v>
       </c>
@@ -36111,12 +36297,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="343"/>
-      <c r="F21" s="553" t="s">
+      <c r="F21" s="556" t="s">
         <v>422</v>
       </c>
-      <c r="G21" s="551"/>
-      <c r="H21" s="551"/>
-      <c r="I21" s="552"/>
+      <c r="G21" s="554"/>
+      <c r="H21" s="554"/>
+      <c r="I21" s="555"/>
       <c r="J21" s="343" t="s">
         <v>420</v>
       </c>
@@ -36143,12 +36329,12 @@
         <v>10</v>
       </c>
       <c r="E22" s="343"/>
-      <c r="F22" s="554" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G22" s="554"/>
-      <c r="H22" s="554"/>
-      <c r="I22" s="554"/>
+      <c r="F22" s="557" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G22" s="557"/>
+      <c r="H22" s="557"/>
+      <c r="I22" s="557"/>
       <c r="J22" s="343" t="s">
         <v>323</v>
       </c>
@@ -36179,12 +36365,12 @@
         <v>40</v>
       </c>
       <c r="E23" s="342"/>
-      <c r="F23" s="555" t="s">
+      <c r="F23" s="558" t="s">
         <v>426</v>
       </c>
-      <c r="G23" s="556"/>
-      <c r="H23" s="556"/>
-      <c r="I23" s="557"/>
+      <c r="G23" s="559"/>
+      <c r="H23" s="559"/>
+      <c r="I23" s="560"/>
       <c r="J23" s="342" t="s">
         <v>425</v>
       </c>
@@ -36211,12 +36397,12 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="343"/>
-      <c r="F24" s="547" t="s">
+      <c r="F24" s="550" t="s">
         <v>340</v>
       </c>
-      <c r="G24" s="551"/>
-      <c r="H24" s="551"/>
-      <c r="I24" s="551"/>
+      <c r="G24" s="554"/>
+      <c r="H24" s="554"/>
+      <c r="I24" s="554"/>
       <c r="J24" s="364"/>
       <c r="K24" s="364"/>
       <c r="L24" s="364"/>
@@ -36227,17 +36413,17 @@
       <c r="Q24" s="365"/>
     </row>
     <row r="25" spans="1:18" s="338" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A25" s="542" t="s">
+      <c r="A25" s="545" t="s">
         <v>429</v>
       </c>
-      <c r="B25" s="542"/>
-      <c r="C25" s="542"/>
-      <c r="D25" s="542"/>
-      <c r="E25" s="542"/>
-      <c r="F25" s="542"/>
-      <c r="G25" s="542"/>
-      <c r="H25" s="542"/>
-      <c r="I25" s="542"/>
+      <c r="B25" s="545"/>
+      <c r="C25" s="545"/>
+      <c r="D25" s="545"/>
+      <c r="E25" s="545"/>
+      <c r="F25" s="545"/>
+      <c r="G25" s="545"/>
+      <c r="H25" s="545"/>
+      <c r="I25" s="545"/>
       <c r="J25" s="366" t="s">
         <v>430</v>
       </c>
@@ -36266,12 +36452,12 @@
       <c r="E26" s="341" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="543" t="s">
+      <c r="F26" s="546" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="543"/>
-      <c r="H26" s="543"/>
-      <c r="I26" s="543"/>
+      <c r="G26" s="546"/>
+      <c r="H26" s="546"/>
+      <c r="I26" s="546"/>
       <c r="J26" s="9" t="s">
         <v>272</v>
       </c>
@@ -36308,12 +36494,12 @@
       <c r="E27" s="342">
         <v>0</v>
       </c>
-      <c r="F27" s="544" t="s">
+      <c r="F27" s="547" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="545"/>
-      <c r="H27" s="545"/>
-      <c r="I27" s="546"/>
+      <c r="G27" s="548"/>
+      <c r="H27" s="548"/>
+      <c r="I27" s="549"/>
       <c r="J27" s="359" t="s">
         <v>374</v>
       </c>
@@ -36342,12 +36528,12 @@
         <v>4</v>
       </c>
       <c r="E28" s="342"/>
-      <c r="F28" s="544" t="s">
+      <c r="F28" s="547" t="s">
         <v>433</v>
       </c>
-      <c r="G28" s="545"/>
-      <c r="H28" s="545"/>
-      <c r="I28" s="546"/>
+      <c r="G28" s="548"/>
+      <c r="H28" s="548"/>
+      <c r="I28" s="549"/>
       <c r="J28" s="362" t="s">
         <v>432</v>
       </c>
@@ -36376,12 +36562,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="343"/>
-      <c r="F29" s="550" t="s">
+      <c r="F29" s="553" t="s">
         <v>436</v>
       </c>
-      <c r="G29" s="551"/>
-      <c r="H29" s="551"/>
-      <c r="I29" s="552"/>
+      <c r="G29" s="554"/>
+      <c r="H29" s="554"/>
+      <c r="I29" s="555"/>
       <c r="J29" s="343" t="s">
         <v>435</v>
       </c>
@@ -36413,12 +36599,12 @@
         <v>40</v>
       </c>
       <c r="E30" s="343"/>
-      <c r="F30" s="550" t="s">
+      <c r="F30" s="553" t="s">
         <v>438</v>
       </c>
-      <c r="G30" s="551"/>
-      <c r="H30" s="551"/>
-      <c r="I30" s="552"/>
+      <c r="G30" s="554"/>
+      <c r="H30" s="554"/>
+      <c r="I30" s="555"/>
       <c r="J30" s="244" t="s">
         <v>439</v>
       </c>
@@ -36451,12 +36637,12 @@
         <v>50</v>
       </c>
       <c r="E31" s="244"/>
-      <c r="F31" s="554" t="s">
+      <c r="F31" s="557" t="s">
         <v>443</v>
       </c>
-      <c r="G31" s="554"/>
-      <c r="H31" s="554"/>
-      <c r="I31" s="554"/>
+      <c r="G31" s="557"/>
+      <c r="H31" s="557"/>
+      <c r="I31" s="557"/>
       <c r="J31" s="244" t="s">
         <v>442</v>
       </c>
@@ -36485,12 +36671,12 @@
         <v>50</v>
       </c>
       <c r="E32" s="244"/>
-      <c r="F32" s="558" t="s">
+      <c r="F32" s="561" t="s">
         <v>447</v>
       </c>
-      <c r="G32" s="559"/>
-      <c r="H32" s="559"/>
-      <c r="I32" s="560"/>
+      <c r="G32" s="562"/>
+      <c r="H32" s="562"/>
+      <c r="I32" s="563"/>
       <c r="J32" s="244" t="s">
         <v>446</v>
       </c>
@@ -36519,12 +36705,12 @@
         <v>20</v>
       </c>
       <c r="E33" s="350"/>
-      <c r="F33" s="561" t="s">
+      <c r="F33" s="564" t="s">
         <v>450</v>
       </c>
-      <c r="G33" s="562"/>
-      <c r="H33" s="562"/>
-      <c r="I33" s="563"/>
+      <c r="G33" s="565"/>
+      <c r="H33" s="565"/>
+      <c r="I33" s="566"/>
       <c r="J33" s="348" t="s">
         <v>449</v>
       </c>
@@ -36561,12 +36747,12 @@
       <c r="E34" s="351">
         <v>0</v>
       </c>
-      <c r="F34" s="554" t="s">
+      <c r="F34" s="557" t="s">
         <v>424</v>
       </c>
-      <c r="G34" s="554"/>
-      <c r="H34" s="554"/>
-      <c r="I34" s="554"/>
+      <c r="G34" s="557"/>
+      <c r="H34" s="557"/>
+      <c r="I34" s="557"/>
       <c r="J34" s="343" t="s">
         <v>323</v>
       </c>
@@ -36596,14 +36782,14 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="343"/>
-      <c r="F35" s="547" t="s">
+      <c r="F35" s="550" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="551"/>
-      <c r="H35" s="551"/>
-      <c r="I35" s="551"/>
+      <c r="G35" s="554"/>
+      <c r="H35" s="554"/>
+      <c r="I35" s="554"/>
       <c r="J35" s="366" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="O35" s="337"/>
       <c r="P35" s="337"/>
@@ -36625,24 +36811,24 @@
       <c r="Q36" s="337"/>
     </row>
     <row r="37" spans="1:18" s="339" customFormat="1" ht="16.5">
-      <c r="A37" s="564" t="s">
+      <c r="A37" s="567" t="s">
         <v>452</v>
       </c>
-      <c r="B37" s="565"/>
-      <c r="C37" s="565"/>
-      <c r="D37" s="565"/>
-      <c r="E37" s="565"/>
-      <c r="F37" s="565"/>
-      <c r="G37" s="565"/>
-      <c r="H37" s="565"/>
-      <c r="I37" s="565"/>
-      <c r="J37" s="566" t="s">
+      <c r="B37" s="568"/>
+      <c r="C37" s="568"/>
+      <c r="D37" s="568"/>
+      <c r="E37" s="568"/>
+      <c r="F37" s="568"/>
+      <c r="G37" s="568"/>
+      <c r="H37" s="568"/>
+      <c r="I37" s="568"/>
+      <c r="J37" s="569" t="s">
         <v>453</v>
       </c>
-      <c r="K37" s="567"/>
-      <c r="L37" s="567"/>
-      <c r="M37" s="567"/>
-      <c r="N37" s="568"/>
+      <c r="K37" s="570"/>
+      <c r="L37" s="570"/>
+      <c r="M37" s="570"/>
+      <c r="N37" s="571"/>
     </row>
     <row r="38" spans="1:18" s="339" customFormat="1" ht="16.5">
       <c r="A38" s="341" t="s">
@@ -36660,12 +36846,12 @@
       <c r="E38" s="341" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="569" t="s">
+      <c r="F38" s="572" t="s">
         <v>360</v>
       </c>
-      <c r="G38" s="570"/>
-      <c r="H38" s="570"/>
-      <c r="I38" s="570"/>
+      <c r="G38" s="573"/>
+      <c r="H38" s="573"/>
+      <c r="I38" s="573"/>
       <c r="J38" s="9" t="s">
         <v>272</v>
       </c>
@@ -36698,12 +36884,12 @@
       <c r="E39" s="343">
         <v>0</v>
       </c>
-      <c r="F39" s="550" t="s">
+      <c r="F39" s="553" t="s">
         <v>375</v>
       </c>
-      <c r="G39" s="551"/>
-      <c r="H39" s="551"/>
-      <c r="I39" s="551"/>
+      <c r="G39" s="554"/>
+      <c r="H39" s="554"/>
+      <c r="I39" s="554"/>
       <c r="J39" s="99" t="s">
         <v>374</v>
       </c>
@@ -36734,12 +36920,12 @@
       <c r="E40" s="343">
         <v>0</v>
       </c>
-      <c r="F40" s="550" t="s">
+      <c r="F40" s="553" t="s">
         <v>456</v>
       </c>
-      <c r="G40" s="551"/>
-      <c r="H40" s="551"/>
-      <c r="I40" s="551"/>
+      <c r="G40" s="554"/>
+      <c r="H40" s="554"/>
+      <c r="I40" s="554"/>
       <c r="J40" s="343" t="s">
         <v>454</v>
       </c>
@@ -36749,12 +36935,12 @@
       <c r="L40" s="343">
         <v>10</v>
       </c>
-      <c r="M40" s="550" t="s">
+      <c r="M40" s="553" t="s">
         <v>456</v>
       </c>
-      <c r="N40" s="551"/>
-      <c r="O40" s="551"/>
-      <c r="P40" s="551"/>
+      <c r="N40" s="554"/>
+      <c r="O40" s="554"/>
+      <c r="P40" s="554"/>
     </row>
     <row r="41" spans="1:18" s="339" customFormat="1" ht="15.75">
       <c r="A41" s="343" t="s">
@@ -36772,12 +36958,12 @@
       <c r="E41" s="343">
         <v>0</v>
       </c>
-      <c r="F41" s="550" t="s">
+      <c r="F41" s="553" t="s">
         <v>458</v>
       </c>
-      <c r="G41" s="551"/>
-      <c r="H41" s="551"/>
-      <c r="I41" s="551"/>
+      <c r="G41" s="554"/>
+      <c r="H41" s="554"/>
+      <c r="I41" s="554"/>
       <c r="J41" s="343" t="s">
         <v>457</v>
       </c>
@@ -36787,16 +36973,16 @@
       <c r="L41" s="343">
         <v>4</v>
       </c>
-      <c r="M41" s="550" t="s">
+      <c r="M41" s="553" t="s">
         <v>458</v>
       </c>
-      <c r="N41" s="551"/>
-      <c r="O41" s="551"/>
-      <c r="P41" s="551"/>
+      <c r="N41" s="554"/>
+      <c r="O41" s="554"/>
+      <c r="P41" s="554"/>
     </row>
     <row r="42" spans="1:18" s="337" customFormat="1" ht="15.75">
       <c r="A42" s="518" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B42" s="343" t="s">
         <v>460</v>
@@ -36810,12 +36996,12 @@
       <c r="E42" s="343">
         <v>0</v>
       </c>
-      <c r="F42" s="550" t="s">
+      <c r="F42" s="553" t="s">
         <v>461</v>
       </c>
-      <c r="G42" s="551"/>
-      <c r="H42" s="551"/>
-      <c r="I42" s="551"/>
+      <c r="G42" s="554"/>
+      <c r="H42" s="554"/>
+      <c r="I42" s="554"/>
       <c r="J42" s="343" t="s">
         <v>459</v>
       </c>
@@ -36825,12 +37011,12 @@
       <c r="L42" s="343">
         <v>4</v>
       </c>
-      <c r="M42" s="550" t="s">
+      <c r="M42" s="553" t="s">
         <v>461</v>
       </c>
-      <c r="N42" s="551"/>
-      <c r="O42" s="551"/>
-      <c r="P42" s="551"/>
+      <c r="N42" s="554"/>
+      <c r="O42" s="554"/>
+      <c r="P42" s="554"/>
     </row>
     <row r="43" spans="1:18" s="338" customFormat="1" ht="15.75">
       <c r="A43" s="343" t="s">
@@ -36848,12 +37034,12 @@
       <c r="E43" s="343">
         <v>0</v>
       </c>
-      <c r="F43" s="550" t="s">
+      <c r="F43" s="553" t="s">
         <v>381</v>
       </c>
-      <c r="G43" s="551"/>
-      <c r="H43" s="551"/>
-      <c r="I43" s="551"/>
+      <c r="G43" s="554"/>
+      <c r="H43" s="554"/>
+      <c r="I43" s="554"/>
       <c r="J43" s="343" t="s">
         <v>378</v>
       </c>
@@ -36863,12 +37049,12 @@
       <c r="L43" s="343">
         <v>4</v>
       </c>
-      <c r="M43" s="550" t="s">
+      <c r="M43" s="553" t="s">
         <v>381</v>
       </c>
-      <c r="N43" s="551"/>
-      <c r="O43" s="551"/>
-      <c r="P43" s="551"/>
+      <c r="N43" s="554"/>
+      <c r="O43" s="554"/>
+      <c r="P43" s="554"/>
     </row>
     <row r="44" spans="1:18" s="337" customFormat="1" ht="15.75">
       <c r="A44" s="343" t="s">
@@ -36886,12 +37072,12 @@
       <c r="E44" s="343">
         <v>0</v>
       </c>
-      <c r="F44" s="550" t="s">
+      <c r="F44" s="553" t="s">
         <v>464</v>
       </c>
-      <c r="G44" s="551"/>
-      <c r="H44" s="551"/>
-      <c r="I44" s="551"/>
+      <c r="G44" s="554"/>
+      <c r="H44" s="554"/>
+      <c r="I44" s="554"/>
       <c r="J44" s="343" t="s">
         <v>462</v>
       </c>
@@ -36901,12 +37087,12 @@
       <c r="L44" s="343">
         <v>4</v>
       </c>
-      <c r="M44" s="550" t="s">
+      <c r="M44" s="553" t="s">
         <v>465</v>
       </c>
-      <c r="N44" s="551"/>
-      <c r="O44" s="551"/>
-      <c r="P44" s="551"/>
+      <c r="N44" s="554"/>
+      <c r="O44" s="554"/>
+      <c r="P44" s="554"/>
     </row>
     <row r="45" spans="1:18" s="337" customFormat="1" ht="33">
       <c r="A45" s="343" t="s">
@@ -36924,12 +37110,12 @@
       <c r="E45" s="343">
         <v>0</v>
       </c>
-      <c r="F45" s="550" t="s">
+      <c r="F45" s="553" t="s">
         <v>383</v>
       </c>
-      <c r="G45" s="551"/>
-      <c r="H45" s="551"/>
-      <c r="I45" s="551"/>
+      <c r="G45" s="554"/>
+      <c r="H45" s="554"/>
+      <c r="I45" s="554"/>
       <c r="J45" s="99" t="s">
         <v>466</v>
       </c>
@@ -36962,12 +37148,12 @@
       <c r="E46" s="343">
         <v>0</v>
       </c>
-      <c r="F46" s="550" t="s">
+      <c r="F46" s="553" t="s">
         <v>327</v>
       </c>
-      <c r="G46" s="551"/>
-      <c r="H46" s="551"/>
-      <c r="I46" s="551"/>
+      <c r="G46" s="554"/>
+      <c r="H46" s="554"/>
+      <c r="I46" s="554"/>
       <c r="J46" s="356" t="s">
         <v>326</v>
       </c>
@@ -36998,12 +37184,12 @@
       <c r="E47" s="343">
         <v>0</v>
       </c>
-      <c r="F47" s="550" t="s">
+      <c r="F47" s="553" t="s">
         <v>469</v>
       </c>
-      <c r="G47" s="551"/>
-      <c r="H47" s="551"/>
-      <c r="I47" s="552"/>
+      <c r="G47" s="554"/>
+      <c r="H47" s="554"/>
+      <c r="I47" s="555"/>
       <c r="J47" s="99" t="s">
         <v>470</v>
       </c>
@@ -37034,12 +37220,12 @@
       <c r="E48" s="343">
         <v>3</v>
       </c>
-      <c r="F48" s="550" t="s">
+      <c r="F48" s="553" t="s">
         <v>473</v>
       </c>
-      <c r="G48" s="551"/>
-      <c r="H48" s="551"/>
-      <c r="I48" s="552"/>
+      <c r="G48" s="554"/>
+      <c r="H48" s="554"/>
+      <c r="I48" s="555"/>
       <c r="J48" s="99" t="s">
         <v>474</v>
       </c>
@@ -37068,12 +37254,12 @@
       <c r="E49" s="343">
         <v>0</v>
       </c>
-      <c r="F49" s="550" t="s">
+      <c r="F49" s="553" t="s">
         <v>396</v>
       </c>
-      <c r="G49" s="551"/>
-      <c r="H49" s="551"/>
-      <c r="I49" s="552"/>
+      <c r="G49" s="554"/>
+      <c r="H49" s="554"/>
+      <c r="I49" s="555"/>
       <c r="J49" s="343" t="s">
         <v>394</v>
       </c>
@@ -37193,12 +37379,12 @@
       <c r="E53" s="351">
         <v>0</v>
       </c>
-      <c r="F53" s="571" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G53" s="551"/>
-      <c r="H53" s="551"/>
-      <c r="I53" s="552"/>
+      <c r="F53" s="574" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G53" s="554"/>
+      <c r="H53" s="554"/>
+      <c r="I53" s="555"/>
       <c r="J53" s="343" t="s">
         <v>323</v>
       </c>
@@ -38210,7 +38396,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38238,16 +38424,16 @@
       <c r="C2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="541" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E2" s="536"/>
-      <c r="F2" s="536"/>
-      <c r="G2" s="536"/>
-      <c r="H2" s="536"/>
-      <c r="I2" s="536"/>
-      <c r="J2" s="536"/>
-      <c r="K2" s="536"/>
+      <c r="D2" s="544" t="s">
+        <v>996</v>
+      </c>
+      <c r="E2" s="539"/>
+      <c r="F2" s="539"/>
+      <c r="G2" s="539"/>
+      <c r="H2" s="539"/>
+      <c r="I2" s="539"/>
+      <c r="J2" s="539"/>
+      <c r="K2" s="539"/>
       <c r="N2" s="328" t="s">
         <v>495</v>
       </c>
@@ -38261,7 +38447,7 @@
         <v>268</v>
       </c>
       <c r="J3" s="508" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -38463,7 +38649,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="501" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -38487,7 +38673,7 @@
         <v>462</v>
       </c>
       <c r="B11" s="502" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>484</v>
@@ -38578,10 +38764,10 @@
         <v>522</v>
       </c>
       <c r="D14" s="315" t="s">
-        <v>523</v>
+        <v>1053</v>
       </c>
       <c r="E14" s="500" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F14" s="316"/>
       <c r="G14" s="316"/>
@@ -38596,15 +38782,15 @@
         <v>521</v>
       </c>
       <c r="M14" s="315" t="s">
+        <v>523</v>
+      </c>
+      <c r="N14" s="316" t="s">
         <v>524</v>
-      </c>
-      <c r="N14" s="316" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="233" customFormat="1" ht="28.5">
       <c r="A15" s="234" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B15" s="235" t="s">
         <v>477</v>
@@ -38614,7 +38800,7 @@
       </c>
       <c r="D15" s="234"/>
       <c r="E15" s="512" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="F15" s="236"/>
       <c r="G15" s="236"/>
@@ -38694,10 +38880,10 @@
     </row>
     <row r="18" spans="1:15" s="233" customFormat="1" ht="15">
       <c r="A18" s="234" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="317" t="s">
         <v>526</v>
-      </c>
-      <c r="B18" s="317" t="s">
-        <v>527</v>
       </c>
       <c r="C18" s="234" t="s">
         <v>481</v>
@@ -38710,14 +38896,14 @@
       <c r="G18" s="319"/>
       <c r="H18" s="320"/>
       <c r="I18" s="317" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J18" s="317" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K18" s="234"/>
       <c r="L18" s="318" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M18" s="318"/>
       <c r="N18" s="236" t="s">
@@ -38732,7 +38918,7 @@
         <v>396</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D19" s="321"/>
       <c r="E19" s="321"/>
@@ -38748,17 +38934,17 @@
     </row>
     <row r="20" spans="1:15" ht="28.5">
       <c r="A20" s="322" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="323" t="s">
         <v>530</v>
       </c>
-      <c r="B20" s="323" t="s">
+      <c r="C20" s="323" t="s">
         <v>531</v>
-      </c>
-      <c r="C20" s="323" t="s">
-        <v>532</v>
       </c>
       <c r="D20" s="324"/>
       <c r="E20" s="325" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F20" s="324"/>
       <c r="G20" s="326"/>
@@ -38781,7 +38967,7 @@
         <v>428</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>490</v>
+        <v>1044</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -38791,7 +38977,7 @@
     </row>
     <row r="22" spans="1:15" ht="28.5">
       <c r="A22" s="168" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I22" s="335" t="s">
         <v>341</v>
@@ -38840,7 +39026,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="513" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C24" s="171" t="s">
         <v>280</v>
@@ -38855,7 +39041,7 @@
         <v>347</v>
       </c>
       <c r="G24" s="499" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="H24" s="327"/>
       <c r="I24" s="93" t="s">
@@ -38994,7 +39180,7 @@
     <row r="34" spans="10:14" ht="16.5">
       <c r="J34" s="24"/>
       <c r="K34" s="520" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -39043,7 +39229,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
@@ -39061,53 +39247,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="536" t="s">
+      <c r="D1" s="544" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="575" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" s="576"/>
+      <c r="C2" s="576"/>
+      <c r="D2" s="576"/>
+      <c r="E2" s="576"/>
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="577"/>
+      <c r="J2" s="225" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="572" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A3" s="578" t="s">
         <v>537</v>
       </c>
-      <c r="B2" s="573"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="573"/>
-      <c r="E2" s="573"/>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="574"/>
-      <c r="J2" s="225" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A3" s="575" t="s">
-        <v>539</v>
-      </c>
-      <c r="B3" s="576"/>
-      <c r="C3" s="576"/>
-      <c r="D3" s="576"/>
-      <c r="E3" s="576"/>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="577"/>
+      <c r="B3" s="579"/>
+      <c r="C3" s="579"/>
+      <c r="D3" s="579"/>
+      <c r="E3" s="579"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="580"/>
       <c r="J3" s="508" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="M3" s="311"/>
     </row>
@@ -39127,19 +39313,19 @@
       <c r="E4" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="578" t="s">
+      <c r="F4" s="581" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="579"/>
-      <c r="H4" s="579"/>
-      <c r="I4" s="580"/>
+      <c r="G4" s="582"/>
+      <c r="H4" s="582"/>
+      <c r="I4" s="583"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="278" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B5" s="276" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C5" s="276" t="s">
         <v>280</v>
@@ -39151,20 +39337,20 @@
         <v>0</v>
       </c>
       <c r="F5" s="291" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G5" s="276" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="276"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="278" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B6" s="276" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C6" s="276" t="s">
         <v>455</v>
@@ -39176,10 +39362,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="291" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G6" s="292" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
@@ -39189,7 +39375,7 @@
         <v>338</v>
       </c>
       <c r="B7" s="276" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C7" s="276" t="s">
         <v>280</v>
@@ -39226,10 +39412,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="291" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G8" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H8" s="276"/>
       <c r="I8" s="276"/>
@@ -39251,20 +39437,20 @@
         <v>0</v>
       </c>
       <c r="F9" s="291" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G9" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H9" s="276"/>
       <c r="I9" s="276"/>
     </row>
     <row r="10" spans="1:13" s="289" customFormat="1" ht="15">
       <c r="A10" s="298" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B10" s="299" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C10" s="299" t="s">
         <v>280</v>
@@ -39276,19 +39462,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="299" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G10" s="299" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H10" s="299"/>
       <c r="I10" s="299" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="233" customFormat="1">
       <c r="A11" s="301" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B11" s="302" t="s">
         <v>379</v>
@@ -39306,19 +39492,19 @@
         <v>381</v>
       </c>
       <c r="G11" s="302" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H11" s="302"/>
       <c r="I11" s="302" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="233" customFormat="1">
       <c r="A12" s="301" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B12" s="302" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C12" s="302" t="s">
         <v>280</v>
@@ -39330,20 +39516,20 @@
         <v>0</v>
       </c>
       <c r="F12" s="302" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G12" s="302" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H12" s="302"/>
       <c r="I12" s="302"/>
     </row>
     <row r="13" spans="1:13" s="233" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="301" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B13" s="301" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C13" s="301" t="s">
         <v>280</v>
@@ -39355,22 +39541,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="503" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G13" s="302" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H13" s="302"/>
       <c r="I13" s="302" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="278" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B14" s="278" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C14" s="278" t="s">
         <v>297</v>
@@ -39382,20 +39568,20 @@
         <v>3</v>
       </c>
       <c r="F14" s="276" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G14" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H14" s="276"/>
       <c r="I14" s="276"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="278" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B15" s="278" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C15" s="278" t="s">
         <v>297</v>
@@ -39407,20 +39593,20 @@
         <v>3</v>
       </c>
       <c r="F15" s="504" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="G15" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H15" s="276"/>
       <c r="I15" s="276"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="278" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B16" s="278" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C16" s="278" t="s">
         <v>303</v>
@@ -39432,20 +39618,20 @@
         <v>0</v>
       </c>
       <c r="F16" s="504" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H16" s="276"/>
       <c r="I16" s="276"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="278" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B17" s="278" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C17" s="278" t="s">
         <v>280</v>
@@ -39457,22 +39643,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="276" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G17" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H17" s="276"/>
       <c r="I17" s="276" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="278" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B18" s="278" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C18" s="278" t="s">
         <v>297</v>
@@ -39484,20 +39670,20 @@
         <v>3</v>
       </c>
       <c r="F18" s="504" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G18" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H18" s="276"/>
       <c r="I18" s="276"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="278" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B19" s="278" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C19" s="278" t="s">
         <v>303</v>
@@ -39509,22 +39695,22 @@
         <v>0</v>
       </c>
       <c r="F19" s="276" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G19" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H19" s="276"/>
       <c r="I19" s="276" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="278" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B20" s="278" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C20" s="278" t="s">
         <v>297</v>
@@ -39536,20 +39722,20 @@
         <v>3</v>
       </c>
       <c r="F20" s="504" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G20" s="304" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H20" s="276"/>
       <c r="I20" s="276"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="278" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B21" s="278" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C21" s="278" t="s">
         <v>303</v>
@@ -39561,20 +39747,20 @@
         <v>0</v>
       </c>
       <c r="F21" s="276" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G21" s="304" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H21" s="276"/>
       <c r="I21" s="276"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="278" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B22" s="278" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C22" s="278" t="s">
         <v>297</v>
@@ -39586,20 +39772,20 @@
         <v>3</v>
       </c>
       <c r="F22" s="276" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G22" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H22" s="276"/>
       <c r="I22" s="276"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="278" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B23" s="278" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C23" s="278" t="s">
         <v>303</v>
@@ -39614,19 +39800,19 @@
         <v>396</v>
       </c>
       <c r="G23" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H23" s="276"/>
       <c r="I23" s="276" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="278" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B24" s="278" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C24" s="278" t="s">
         <v>297</v>
@@ -39638,20 +39824,20 @@
         <v>3</v>
       </c>
       <c r="F24" s="276" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G24" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H24" s="276"/>
       <c r="I24" s="276"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="278" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B25" s="278" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C25" s="278" t="s">
         <v>303</v>
@@ -39666,19 +39852,19 @@
         <v>396</v>
       </c>
       <c r="G25" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H25" s="276"/>
       <c r="I25" s="276" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="278" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B26" s="278" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C26" s="278" t="s">
         <v>297</v>
@@ -39690,20 +39876,20 @@
         <v>3</v>
       </c>
       <c r="F26" s="276" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G26" s="276" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H26" s="276"/>
       <c r="I26" s="276"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="278" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B27" s="278" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C27" s="278" t="s">
         <v>303</v>
@@ -39715,20 +39901,20 @@
         <v>0</v>
       </c>
       <c r="F27" s="276" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G27" s="276" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H27" s="276"/>
       <c r="I27" s="276"/>
     </row>
     <row r="28" spans="1:9" s="233" customFormat="1">
       <c r="A28" s="301" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B28" s="301" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C28" s="301" t="s">
         <v>297</v>
@@ -39740,20 +39926,20 @@
         <v>3</v>
       </c>
       <c r="F28" s="302" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G28" s="302" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H28" s="302"/>
       <c r="I28" s="302"/>
     </row>
     <row r="29" spans="1:9" s="233" customFormat="1">
       <c r="A29" s="301" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B29" s="301" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C29" s="301" t="s">
         <v>303</v>
@@ -39768,11 +39954,11 @@
         <v>396</v>
       </c>
       <c r="G29" s="302" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H29" s="302"/>
       <c r="I29" s="302" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -39795,7 +39981,7 @@
         <v>506</v>
       </c>
       <c r="G30" s="276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H30" s="276"/>
       <c r="I30" s="276">
@@ -39804,10 +39990,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="278" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B31" s="278" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C31" s="278" t="s">
         <v>280</v>
@@ -39819,22 +40005,22 @@
         <v>0</v>
       </c>
       <c r="F31" s="278" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G31" s="305" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H31" s="278"/>
       <c r="I31" s="278" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="278" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B32" s="278" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C32" s="278" t="s">
         <v>280</v>
@@ -39846,20 +40032,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="278" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G32" s="305" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H32" s="278"/>
       <c r="I32" s="278"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="306" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B33" s="306" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C33" s="306" t="s">
         <v>280</v>
@@ -39871,20 +40057,20 @@
         <v>0</v>
       </c>
       <c r="F33" s="306" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G33" s="307" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H33" s="306"/>
       <c r="I33" s="306"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="308" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B34" s="308" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C34" s="308" t="s">
         <v>280</v>
@@ -39896,10 +40082,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="308" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G34" s="309" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H34" s="308"/>
       <c r="I34" s="308"/>
@@ -39917,7 +40103,7 @@
     </row>
     <row r="37" spans="1:9" ht="28.5">
       <c r="A37" s="168" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -39963,7 +40149,7 @@
         <v>347</v>
       </c>
       <c r="G39" s="499" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -39986,7 +40172,7 @@
         <v>351</v>
       </c>
       <c r="G40" s="497" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -39994,7 +40180,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C41" s="99" t="s">
         <v>455</v>
@@ -40007,7 +40193,7 @@
         <v>351</v>
       </c>
       <c r="G41" s="284" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -40015,7 +40201,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C42" s="99" t="s">
         <v>455</v>
@@ -40028,7 +40214,7 @@
         <v>351</v>
       </c>
       <c r="G42" s="284" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -40068,49 +40254,49 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="48.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="536" t="s">
+      <c r="D1" s="539" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
       <c r="N1" s="282"/>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="269" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="581"/>
-      <c r="C2" s="582"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="582"/>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="583"/>
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="585"/>
+      <c r="E2" s="585"/>
+      <c r="F2" s="585"/>
+      <c r="G2" s="585"/>
+      <c r="H2" s="585"/>
+      <c r="I2" s="586"/>
       <c r="J2" s="6" t="s">
         <v>268</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="270" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B3" s="271" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C3" s="272"/>
       <c r="D3" s="272"/>
@@ -40151,12 +40337,12 @@
       <c r="E4" s="274" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="584" t="s">
+      <c r="F4" s="587" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="585"/>
-      <c r="H4" s="585"/>
-      <c r="I4" s="586"/>
+      <c r="G4" s="588"/>
+      <c r="H4" s="588"/>
+      <c r="I4" s="589"/>
       <c r="J4" s="106"/>
       <c r="K4" s="99"/>
       <c r="L4" s="100"/>
@@ -40165,10 +40351,10 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="275" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B5" s="276" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C5" s="276" t="s">
         <v>280</v>
@@ -40179,14 +40365,14 @@
       <c r="E5" s="278">
         <v>0</v>
       </c>
-      <c r="F5" s="587" t="s">
-        <v>618</v>
-      </c>
-      <c r="G5" s="588"/>
-      <c r="H5" s="588"/>
-      <c r="I5" s="589"/>
+      <c r="F5" s="590" t="s">
+        <v>616</v>
+      </c>
+      <c r="G5" s="591"/>
+      <c r="H5" s="591"/>
+      <c r="I5" s="592"/>
       <c r="J5" s="106" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K5" s="99" t="s">
         <v>455</v>
@@ -40198,15 +40384,15 @@
         <v>0</v>
       </c>
       <c r="N5" s="284" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
       <c r="A6" s="275" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B6" s="276" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C6" s="276" t="s">
         <v>455</v>
@@ -40217,14 +40403,14 @@
       <c r="E6" s="278">
         <v>0</v>
       </c>
-      <c r="F6" s="587" t="s">
-        <v>620</v>
-      </c>
-      <c r="G6" s="588"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="590"/>
+      <c r="F6" s="590" t="s">
+        <v>618</v>
+      </c>
+      <c r="G6" s="591"/>
+      <c r="H6" s="591"/>
+      <c r="I6" s="593"/>
       <c r="J6" s="106" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K6" s="99" t="s">
         <v>455</v>
@@ -40236,7 +40422,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="284" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="62.1" customHeight="1">
@@ -40244,7 +40430,7 @@
         <v>338</v>
       </c>
       <c r="B7" s="276" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C7" s="276" t="s">
         <v>280</v>
@@ -40255,12 +40441,12 @@
       <c r="E7" s="279">
         <v>0</v>
       </c>
-      <c r="F7" s="591" t="s">
-        <v>621</v>
-      </c>
-      <c r="G7" s="592"/>
-      <c r="H7" s="592"/>
-      <c r="I7" s="593"/>
+      <c r="F7" s="594" t="s">
+        <v>619</v>
+      </c>
+      <c r="G7" s="595"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="596"/>
       <c r="J7" s="278" t="s">
         <v>338</v>
       </c>
@@ -40279,7 +40465,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="280" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B8" s="281"/>
       <c r="C8" s="281"/>
@@ -40311,14 +40497,14 @@
       <c r="E9" s="276" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="578" t="s">
+      <c r="F9" s="581" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="579"/>
-      <c r="H9" s="579"/>
-      <c r="I9" s="580"/>
+      <c r="G9" s="582"/>
+      <c r="H9" s="582"/>
+      <c r="I9" s="583"/>
       <c r="J9" s="288" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K9" s="99"/>
       <c r="L9" s="100"/>
@@ -40327,10 +40513,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="275" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B10" s="278" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C10" s="278" t="s">
         <v>280</v>
@@ -40341,14 +40527,14 @@
       <c r="E10" s="278">
         <v>0</v>
       </c>
-      <c r="F10" s="594" t="s">
-        <v>626</v>
-      </c>
-      <c r="G10" s="595"/>
-      <c r="H10" s="595"/>
-      <c r="I10" s="596"/>
+      <c r="F10" s="597" t="s">
+        <v>624</v>
+      </c>
+      <c r="G10" s="598"/>
+      <c r="H10" s="598"/>
+      <c r="I10" s="599"/>
       <c r="J10" s="278" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K10" s="278" t="s">
         <v>280</v>
@@ -40361,10 +40547,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="275" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B11" s="278" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C11" s="278" t="s">
         <v>280</v>
@@ -40375,14 +40561,14 @@
       <c r="E11" s="278">
         <v>0</v>
       </c>
-      <c r="F11" s="597" t="s">
-        <v>629</v>
-      </c>
-      <c r="G11" s="598"/>
-      <c r="H11" s="598"/>
-      <c r="I11" s="599"/>
+      <c r="F11" s="600" t="s">
+        <v>627</v>
+      </c>
+      <c r="G11" s="601"/>
+      <c r="H11" s="601"/>
+      <c r="I11" s="602"/>
       <c r="J11" s="278" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K11" s="278" t="s">
         <v>280</v>
@@ -40399,10 +40585,10 @@
       <c r="C12" s="276"/>
       <c r="D12" s="276"/>
       <c r="E12" s="276"/>
-      <c r="F12" s="597"/>
-      <c r="G12" s="598"/>
-      <c r="H12" s="598"/>
-      <c r="I12" s="600"/>
+      <c r="F12" s="600"/>
+      <c r="G12" s="601"/>
+      <c r="H12" s="601"/>
+      <c r="I12" s="603"/>
       <c r="J12" s="106"/>
       <c r="K12" s="99"/>
       <c r="L12" s="100"/>
